--- a/data/trabajos.xlsx
+++ b/data/trabajos.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -424,67 +424,1627 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Barrenderos matutino y nocturno con o sin experiencia</v>
+        <v>Trabajo Desde Casa Desarrollador Next.js / Ref. 0697</v>
       </c>
       <c r="B2" t="str">
-        <v>Idea Market Solutions</v>
+        <v>BairesDev LLC</v>
       </c>
       <c r="C2" t="str">
-        <v>Iztapalapa, Ciudad de México DF</v>
+        <v>Puebla, Puebla</v>
       </c>
       <c r="D2" t="str">
-        <v>$ 8,000.00</v>
+        <v>$ 3,700</v>
       </c>
       <c r="E2" t="str">
-        <v>Unete al mejor equipo de trabajo como BARRENDER@TURNOS DISPONIBLESmatutino: 9:00 am - 6:00 pmnocturno: 6pm - 6 amLunes a Sábado a Domingo descanso rolado entre semanaSalario: $2,000 semanales ( $2,500 NOCTURNO)+ prestaciones+uniformesSexo indistintoNo necesitas experienciaContratación inmediataZona de trabajo: Central de Abastos CDMX ( IZTAPALAPA)</v>
+        <v>En BairesDev® llevamos 15 años liderando proyectos de tecnología para clientes como Google, Rolls-Royce y las startups más innovadoras de Silicon Valley. Actualmente, contamos con un equipo de 4000 profesionales conformado por el top 1% de la industria trabajando de forma remota desde más de 50 países.Al postularte a esta vacante, estarás dando el primer paso en un proceso que va más allá de lo convencional: Buscaremos conocer en profundidad tus habilidades, intereses y expectativas con el objetivo de realizar una búsqueda personalizada y encontrar el rol ideal para ti en BairesDev.Desarrollador Next.js en BairesDevEstamos buscando un desarrollador de Next.js para trabajar en una agencia de comercio y experiencia del cliente global de servicio completo. Esta es una excelente oportunidad para ser uno de los miembros clave de nuestro equipo de Ingeniería y posicionarse para oportunidades únicas de crecimiento profesional.Principales responsabilidades:- Desarrollar software y aplicaciones web de calidad.- Analizar y mantener las aplicaciones de software existentes.- Diseñar código altamente escalable y comprobable.- Descubrir y corregir errores de programación.¿Qué Buscamos?:- 3+ años de experiencia en Next.js.- 3+ años de experiencia profesional en el desarrollo de aplicaciones web listas para producción- Propiedad de la obra de principio a fin.- Competencia en el desarrollo de aplicaciones web y comprensión de los marcos JavaScript y React.- Experiencia con sistemas de bases de datos relacionales (por ejemplo, PostgreSQL, MySQL).- Nivel de inglés avanzado.Qué ofrecemos para que tu trabajo (y tu vida) sea más fácil:- Trabajo 100% remoto: trabaja desde tu casa o donde quieras.- Compensación en USD o en tu moneda local, como prefieras, muy por encima de la media del mercado.- Hardware y software.- Horarios flexibles- Licencias por mater/paternidad, vacaciones y días festivos nacionales pagos.- Ambiente laboral multicultural e innovador, perfecto para hacer amigos, colaborar y aprender de las personas más talentosas del mundo.- Oportunidades de crecimiento y desarrollo profesional a través de mentorías y entrenamientos.¡Únete a nuestro equipo global!</v>
       </c>
       <c r="F2" t="str">
-        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-barrenderos-matutino-y-nocturno-con-o-sin-experiencia-en-iztapalapa-11A7D3B0A60709DB61373E686DCF3405#lc=ListOffers-Score4-0</v>
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-trabajo-desde-casa-desarrollador-nextjs-ref-0697-en-puebla-0D1117E7CDC5A2C061373E686DCF3405#lc=ListOffers-Score4-0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Barrenderos / $2,000 a la semana Central de Abastos CDMX</v>
+        <v>Work From Home Next.js Developer / Ref. 0697</v>
       </c>
       <c r="B3" t="str">
-        <v>Idea Market Solutions</v>
+        <v>BairesDev LLC</v>
       </c>
       <c r="C3" t="str">
-        <v>Iztapalapa, Ciudad de México DF</v>
+        <v>Mérida, Yucatán</v>
       </c>
       <c r="D3" t="str">
-        <v>$2,000</v>
+        <v>$ 3,700</v>
       </c>
       <c r="E3" t="str">
-        <v>SOLICITAMOS POR EXPANSION: BARRENDEROSZONA: IZTAPALAPA (CENTRAL DE ABASTOS)SUELDO $2,000 semanales libresPagos semanalesContarás con Prestaciones de LeyHorario: 9:00 am a 6:00 pmLunes a Domingo, 1 día de descanso entre semana</v>
+        <v>At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.Next.js Developer at BairesDevWe are looking for a Next.js developer to work in a full-service global customer experience and commerce agency. This is an excellent opportunity to be one of the key members of our Engineering team and position yourself for unique career growth opportunities.What You Will Do:- Develop quality software and web applications.- Analyze and maintain existing software applications.- Design highly scalable, testable code.- Discover and fix programming bugs.Heres what we are looking for:- 3+ years of Next.js experience.- 3+ years of professional experience developing production ready web applications.- Ownership of work from beginning to end.- Proficiency developing web applications and understanding of JavaScript and React frameworks.- Experience with relational database systems (e.g. PostgreSQL, MySQL).- Advanced English level.How we do make your work (and your life) easier:- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.Apply now and become part of a global team where your unique talents can truly thrive!</v>
       </c>
       <c r="F3" t="str">
-        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-barrenderos-2000-a-la-semana-central-de-abastos-cdmx-en-iztapalapa-75FC0F398FF27B2C61373E686DCF3405#lc=ListOffers-Score4-1</v>
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-work-from-home-nextjs-developer-ref-0697-en-merida-DFFE2BFA1A985ED961373E686DCF3405#lc=ListOffers-Score4-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Auxiliares de limpieza contratación inmediata - Iztapalapa Central de abastos</v>
+        <v>Specialty Chef – Indian Cuisine - Moon Palace</v>
       </c>
       <c r="B4" t="str">
-        <v>Idea Market Solutions</v>
+        <v>Palace Resorts</v>
       </c>
       <c r="C4" t="str">
-        <v>Iztapalapa, Ciudad de México DF</v>
+        <v>Benito Juárez, Quintana Roo</v>
       </c>
       <c r="D4" t="str">
-        <v>$ 10,000.00</v>
+        <v>$ 13,095</v>
       </c>
       <c r="E4" t="str">
-        <v>Importante empresa de residuos está en busca de tu talentoSolicitamos personal de limpieza (diversas áreas)BarrenderosAuxiliares de limpieza de pasillosLavadores de camionesZONA IZTAPALAPAOFRECEMOS:Sueldo semanal (dependiendo de la posición)Horario dependiendo de la operaciónPagos semanalesRequisitos:Disponibilidad de horarioExperiencia no necesaria o mínimaZona de trabajoCENTRAL DE ABASTOS IZTAPALAPASi estas interesada/o postúlate con tu CV actualizado o marca al 5580109495</v>
+        <v>Are you an expert in cooking, with a focus on Indian cuisine?Moon Palace Cancun is looking for its next Specialty Chef in Indian Cuisine!Join a hotel chain known for innovation, excellence, and world-class hospitality:What are we looking for?• Intermediate English• Culinary studies• Knowledge of Food and Beverage Hygiene Standards, General Kitchen Standards, Culinary Specialties, and Cost Control• Experience in preparing Indian specialty dishesWhat do we offer?• Lead in one of the most exclusive resorts in the Caribbean• Top-tier work environment• Real opportunities for professional growth• Ongoing training and access to cutting-edge technologies• Superior benefits and unique perksCancun, Mexico | Moon Palace CancunApply today and discover what it means to be part of the next level in hospitality!</v>
       </c>
       <c r="F4" t="str">
-        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-auxiliares-de-limpieza-contratacion-inmediata-iztapalapa-central-de-abastos-en-iztapalapa-65BB4A5C627E4E3761373E686DCF3405#lc=ListOffers-Score3-2</v>
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-specialty-chef-indian-cuisine-moon-palace-en-benito-juarez-FF00836AD5746FB561373E686DCF3405#lc=ListOffers-Score3-2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Night Shift Technical Support Agent (Bilingual) - MXN 19K Salary</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Importante empresa del sector</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Miguel Hidalgo, Ciudad de México DF</v>
+      </c>
+      <c r="D5" t="str">
+        <v>$ 16,000.00</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Night Owl Opportunity: Tier 1 Technical Support Agent (Overnight Shift)Are you ready to become part of a thriving corporate environment with an international scope? GlobalTech Corporation, a leader in providing technological solutions for the U.S. tax sector, is looking for dedicated professionals for our Tier 1 Technical Support team. This role focuses on delivering exceptional service and resolving technical incidents for our corporate clients.Your Role and Responsibilities:• Provide first-level technical support and resolve incidents remotely.• Accurately log all case details in our ticketing system.• Ensure timely follow-up on service requests and escalate complex problems when necessary.• Maintain a clear, professional, and solution-driven user experience for all clients.• Collaborate effectively with cross-functional technical and operational teams.Ideal Candidate Profile:• Education: High school diploma (minimum); a Bachelor's degree or technical certification is preferred.• Language: Advanced English (C1 level is essential).• Experience: Minimum of 6 months to 1 year of proven experience in technical support or customer service.• Technical Skills: Basic knowledge of ticketing platforms, remote support tools, and various digital applications.• Key Skills: Strong communication, organizational, and customer-centric abilities.• Work Schedule: Availability to work Monday to Friday, from 12:00 AM to 7:00 AM (Overnight Shift).Benefits &amp; Compensation:• Comprehensive Monthly Salary: $19,000 MXN (night bonus already included).• Direct Hire: Immediate direct hiring by GlobalTech Corporation.• Training: Full initial technical training provided to ensure your success.• Stability &amp; Growth: Enjoy job stability with clear opportunities for professional advancement.• Work Environment: A supportive and excellent work environment.• Payment: Punctual bi-weekly payments.Work Location:• Alcaldía Miguel Hidalgo, CDMX• Modality: On-site.• Availability: Immediate.Take the next step in your tech career. Apply for our Overnight Support role!</v>
+      </c>
+      <c r="F5" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-night-shift-technical-support-agent-bilingual-mxn-19k-salary-en-miguel-hidalgo-97989574325DEC5661373E686DCF3405#lc=ListOffers-Score3-3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Marketing Specialist</v>
+      </c>
+      <c r="B6" t="str">
+        <v>ALTA INFRAESTRUCTURA Y CONSTRUCCION</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Benito Juárez, Quintana Roo</v>
+      </c>
+      <c r="D6" t="str">
+        <v>No especificado</v>
+      </c>
+      <c r="E6" t="str">
+        <v>We’re Hiring a Marketing Specialist! | IA RemodelingOn-site | Full-Time | Growth-Focused EnvironmentAre you a results-driven marketer with a passion for paid ads, automation, and data? Want to join a fast-growing team in the remodeling &amp; construction space where your creativity and tech skills drive real impact?At IA Remodeling, we don’t just build spaces—we build opportunity. And right now, we’re on the hunt for a Marketing Specialist who’s ready to take our lead generation engine to the next level — on-site with our energetic and collaborative team.What You’ll DoCreate, manage, and optimize advertising campaigns across Meta (Facebook &amp; Instagram) and Google Ads platforms.Build and optimize landing pages for campaigns, focusing on conversion rates and user experience.Install and configure tracking pixels (Meta Pixel, Google Tags) to ensure accurate campaign tracking and reporting.Integrate email marketing systems (such as Mailchimp, Klaviyo, or similar) to automate customer journeys and nurture leads.Set up and manage CRM systems to organize leads, customer data, and sales pipelines (e.g., HubSpot, GoHighLevel, Salesforce).Monitor campaign performance, analyze metrics, and provide actionable insights to improve results.Collaborate with design, sales, and operations teams to align marketing initiatives with business goals.What We’re Looking ForMinimum 2+ years of experience in digital marketing, with a focus on paid ads, landing pages, CRM, and email marketing.Proven experience managing paid ads inside Meta and Google platforms.Experience building high-converting landing pages (WordPress, ClickFunnels, Webflow, or similar tools).Strong understanding of pixel installation, event tracking, and retargeting strategies.Experience with email marketing setup, automation, and performance tracking.Hands-on experience setting up and managing CRMs and marketing automation tools.Analytical mindset with strong attention to detail.Ability to work in a fast-paced environment and manage multiple projects simultaneously.Think you’re a great fit? Apply now and let’s build something amazing—together, in person.</v>
+      </c>
+      <c r="F6" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-marketing-specialist-en-benito-juarez-C8537FED2F29733261373E686DCF3405#lc=ListOffers-Score3-4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Desarrollador Web y Movil - Con experiencia comprobable en el puesto</v>
+      </c>
+      <c r="B7" t="str">
+        <v>OPERADORA PEZ GATO</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Los Cabos, Baja California Sur</v>
+      </c>
+      <c r="D7" t="str">
+        <v>$ 16,000.00</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Experiencia en diseño, desarrollo, programación e implementación de pag web. Experiencia deseable en React, NextJS, vue o angular Experiencia con tecnologías Docker y herramientas como kubernetes o Amazon ECS. Mas de 2 años de experiencia como desarrollador Full Stack.</v>
+      </c>
+      <c r="F7" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-desarrollador-web-y-movil-con-experiencia-comprobable-en-el-puesto-en-los-cabos-854DEE2B92943ECE61373E686DCF3405#lc=ListOffers-Score3-5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>New Bilingual Technical Support Campaign</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Telvista</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Tijuana, Baja California</v>
+      </c>
+      <c r="D8" t="str">
+        <v>$ 16,000.00</v>
+      </c>
+      <c r="E8" t="str">
+        <v>We are excited to have you as part of are new campaign in TELvista!We are looking for talented who want to be part of our growing team of technical support.TELvista offers an excellent work environment, benefits by law and access to exclusive programs:You can choose your schedule!!!Base salary $4,000 pesos A WEEKAttendance &amp; productivity BONUS.REQUIREMENTS:Advance Conversational EnglishPC skillsIf youre ready to take the next step in your career, we can have an Interview today and join one of the best companies to work for.</v>
+      </c>
+      <c r="F8" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-new-bilingual-technical-support-campaign-en-tijuana-1AC9CD048BB25A1861373E686DCF3405#lc=ListOffers-Score3-6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Desarollador FullStack - Sr</v>
+      </c>
+      <c r="B9" t="str">
+        <v>AVASA</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Mérida, Yucatán</v>
+      </c>
+      <c r="D9" t="str">
+        <v>$ 11,239</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Buscamos sumarte a nuestro equipo de trabajo, para desarrollarte como:DESARROLLADOR FULLSTACKOfrecemos:-Atractivo sueldo acorde a aptitudes-Prestaciones de ley (inmediatas)-Beneficios internos-Oportunidades de desarrollo y crecimientoFunciones:-Diseño y desarrollo de aplicaciones web (Next.js)-Implementar y mantener APis y servicios backend en Node,js-Code reviews-Colaborar con el product ownerImportante-Experiencia mínima 5 años-Disponibilidad para trabajar presencialmente</v>
+      </c>
+      <c r="F9" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-desarollador-fullstack-sr-en-merida-42BA7ED74045742861373E686DCF3405#lc=ListOffers-Score3-7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Real Estate Expansion and Market Analyst</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pearl Talent</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Puerto Rico</v>
+      </c>
+      <c r="D10" t="str">
+        <v>$5</v>
+      </c>
+      <c r="E10" t="str">
+        <v>DescriptionAbout Pearl TalentPearl works with the top 1% of candidates from around the world and connects them with the best startups in the US and EU. Our clients have raised over $5B in aggregate and are backed by companies like OpenAI, a16z, and Founders Fund. They’re looking for the sharpest, hungriest candidates who they can consistently promote and work with over many years. Candidates we’ve hired have been flown out to the US and EU to work with their clients, and even promoted to roles that match folks onshore in the US.Hear why we exist, what we believe in, and who we’re building for:Why Work with Us?We’re not just another recruiting firm—we focus on placing candidates with exceptional US and EU founders who prioritize the long-term success of their team members. We also provide retention bonuses at 3, 6, 9, and 12 months, as well as community-driven benefits like an annual retreat.About the CompanyWe are seeking a highly analytical and proactive Market Research Analyst, rapidly growing real estate development company based in Florida. This role is ideal forsomeone with strong research capabilities, data analysis skills, and the ability to identifyemerging market opportunities before the competition. You will work directly with seniorleadership to provide critical market intelligence that drives multi-million dollarinvestment decisions.RequirementsProven background in market research, data analysis, or real estate industryexperienceAdvanced Excel skills with ability to analyze large datasets and identify trendsExperience gathering information from government databases, public records, and industry sourcesPreferred: Background in real estate, urban planning, economic development, or related fieldsBonus: Familiarity with Florida markets, municipal planning processes, or GIS/mapping softwareDemonstrated ability to synthesize complex research into clear, actionable insightsExperience creating presentations and reports for executive decision-makingComfort with learning new software platforms and database management systemsKey Responsibilities:Monitor Department of Transportation infrastructure plans (road expansions, newinterchanges, highway upgrades)Monitor Department of Economic Development budgeting plans and targetingindustry growth sectors &amp; expansions effortsTrack population migration trends, demographic shifts, and employment growth patternsIdentify new commercial developments, major retailer expansions, and industrial projectsCreate and maintain centralized market intelligence database with automated tracking systemsDevelop systematic processes for consistent market monitoring across multiple Florida marketsBuild relationships with targeted brokers to identify land opportunities – finding and keeping track of upcoming events for land acquisition team to attend (i.e builder events, broker events)Support creation of compelling market presentations for builder pitches and investor meetingsDevelop an on-going Google notification system to keep tabs of development, infrastructure, and employment hubs article coverage.Generate bi-weekly snapshots of findings, highlighting the analytics or development pipeline which makes the market a target.Not meant to be an overloaded report of data but more with interpretation &amp; guidanceConduct a search on national home builder &amp; broker meet-ups.Large conferences to small gatheringsBenefitsCompetitive Salary: Up to $1,500 per month, based on experience and skillsRemote Work: Fully remote—work from anywhereGenerous PTO: 10 days PTO per year, plus public US holidaysDirect Mentorship: Grow through guidance from international industry expertsLearning &amp; Development: Ongoing access to resources for professional growthGlobal Networking: Work and connect with professionals around the worldWork-Life Balance: Balanced schedule that supports a healthy work-life balance.Our Recruitment Process:ApplicationScreeningTop-grading InterviewSkills AssessmentClient InterviewJob OfferClient OnboardingReady to Join Us?If this role aligns with your skills and career goals, we'd love to hear from you. Apply now to take the next step in your journey with Pearl.</v>
+      </c>
+      <c r="F10" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-real-estate-expansion-and-market-analyst-en-puerto-rico-22259E07DDB14C5661373E686DCF3405#lc=ListOffers-Score3-8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Patient Care Scheduler</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Pearl Talent</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Chihuahua, Chihuahua</v>
+      </c>
+      <c r="D11" t="str">
+        <v>$ 26,600.00</v>
+      </c>
+      <c r="E11" t="str">
+        <v>DescriptionJob Position: Patient Care Scheduler (Provider Liaison)Work Arrangement: Fully Remote – Based in the Philippines or LATAMJob Type: Full-time, Independent ContractorWork Schedule: Monday–Friday, 9:00 AM to 6:00 PM Eastern TimeAbout Pearl Talent:Pearl works with the top 1% of candidates from around the world and connects them with the best startups in the US and EU. Our clients have raised over $5B in aggregate and are backed by companies like OpenAI, a16z, and Founders Fund. They’re looking for the sharpest, hungriest candidates who they can consistently promote and work with over many years. Candidates we’ve hired have been flown out to the US and EU to work with their clients, and even promoted to roles that match folks onshore in the US.Hear why we exist, what we believe in, and who we’re building for:Why Work with Us?We’re not just another recruiting firm—we focus on placing candidates with exceptional US and EU founders who prioritize the long-term success of their team members. We also provide retention bonuses at 3, 6, 9, and 12 months, as well as community-driven benefits like an annual retreat.About the CompanyOur client is a U.S.-based healthcare organization focused on increasing access to life-saving medications for patients with chronic conditions. They partner with leading hospitals, pharmacies, and healthcare providers across the U.S. to simplify the patient care process and ensure timely, affordable treatment.We’re looking for a Patient Care Scheduler to support our rapidly growing provider network. This is a mission-driven role ideal for someone who is organized, persistent, and passionate about creating better health outcomes.Role Overview:As a Provider Liaison &amp; Scheduler, you’ll be responsible for coordinating with healthcare providers and pharmacies to secure signed Collaborative Practice Agreements (CPAs) and schedule clinical consultations between patients and pharmacists. You’ll handle high-volume outreach, document communications in our CRM system, and ensure patients move efficiently through the scheduling process.This role is ideal for someone with a healthcare coordination background, strong communication skills, and the ability to follow through across multi-step processes.Purpose of Your RoleTo ensure that every patient referred into our program can quickly access the clinical care they need—by securing CPA signatures from providers and efficiently scheduling consultations. You’ll streamline the path between physician, pharmacist, and patient, directly improving patient access and care timelines.Requirements1. Provider Outreach &amp; CPA CoordinationReach out to physician offices via phone, email, and online fax to introduce and secure CPAsExplain the purpose and process of CPAs to medical staffPersistently follow up on unsigned agreements using standardized scripts and sequencesAccurately log all communication and document status in the CRM2. Patient Scheduling SupportOnce CPAs are secured, schedule patients for consultations with pharmacy partnersCoordinate schedules between patients and clinical teamsConfirm and document all appointments, reschedules, and follow-ups3. Data Management &amp; ReportingMaintain clean, up-to-date CRM records for every provider and patient caseIdentify and escalate unresponsive or rejecting providers to U.S. teamSubmit weekly activity and performance reports to the operations team4. Workflow Optimization (Growth Opportunity)Proactively identify bottlenecks or inefficiencies in outreach and scheduling processesRecommend improvements or new SOPs to streamline operationsCollaborate with other schedulers (as the team grows) to share learnings and best practicesPreferred Experience1–2+ years in U.S. healthcare operations, patient coordination, or provider support rolesProven experience speaking with physicians, clinic staff, or healthcare providersFamiliar with CRMs (e.g., Telescope), online fax tools, Google Sheets, and remote collaboration tools like Slack and WhatsAppPast experience working with U.S.-based teams in a fully remote roleKey Skills &amp; AttributesClear, confident communicator – able to explain complex workflows to medical professionalsPersistent and detail-oriented – follows up thoroughly and tracks progress accuratelyCritical thinker – makes suggestions to improve processes and flag issuesIndependent and proactive – thrives in a remote setting with minimal hand-holdingBilingual (Spanish a plus) – many patients prefer or benefit from Spanish-speaking supportBenefitsPotential for profit share based on performanceFully WFH, foreverAnnual team retreatUnlimited PTOPotential Growth OpportunitiesOur Recruitment Process:ApplicationScreeningSkills AssessmentTop-grading InterviewFinal InterviewJob OfferOnboardingReady to Join Us?If this role aligns with your skills and career goals, we’d love to hear from you. Apply now to take the next step in your journey with Pearl.</v>
+      </c>
+      <c r="F11" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-patient-care-scheduler-en-chihuahua-8DCD27C2FD0C59D261373E686DCF3405#lc=ListOffers-Score3-9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Corporate Talent Acquisition Manager</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Importante empresa del sector</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Mérida, Yucatán</v>
+      </c>
+      <c r="D12" t="str">
+        <v>$ 60,000.00</v>
+      </c>
+      <c r="E12" t="str">
+        <v># Gerente de Reclutamiento# Gerente de Atracción de TalentoCorporate Talent Acquisition ManagerLocation: Mérida, YucatánConfidential AAA CompanyFull-time | On-site with international interactionAre you passionate about attracting top talent in a fast-paced and constantly evolving environment?We are looking for a strategic, results-driven, and dynamic Corporate Talent Acquisition Manager to lead, standardize, and elevate our recruitment processes globally.The ideal candidate has solid experience in large multinational organizations and thrives in environments of transformation and growth.Key Responsibilities:Ensure timely and high-quality fulfillment of operational, entry-level, middle management, senior management, and C-level roles to meet short-, mid-, and long-term business growth goals.Design, implement, and standardize best-in-class talent acquisition strategies across all levels and business units.Lead and coach a team of recruiters, ensuring alignment with KPIs and continuous development.Conduct behavioral interviews using STAR methodology (Manager &amp; team).Build and maintain strong relationships with stakeholders and hiring managers across different countries and business units.Manage and optimize modern recruitment tools and platforms:ATS systems: Greenhouse, Lever, SmartRecruiters, SAP SuccessFactors, etc.Sourcing tools: LinkedIn Recruiter, Boolean Search, Talent Pools, headhunting techniques, and social media recruiting.Employer Branding: EVP development, inbound recruiting, market mapping.Collaborate with external recruitment vendors and partners.Oversee recruitment processes within Shared Services structures.Manage IT recruitment needs (developers, programmers, infrastructure, and networks).Apply and interpret psychometric and technical assessments.Deliver accurate, data-driven reports using Excel. Analyze recruitment metrics and generate executive dashboards for continuous improvement and strategic decision-making.Monitor and improve candidate experience throughout the hiring lifecycle.Drive initiatives to enhance employer brand positioning and talent market penetration.Contribute to broader organizational projects such as growth strategies, international expansions, and change management initiatives.Requirements:Bachelor's degree in Psychology, Business Administration, or a related field (required).Advanced English (oral and written B2+) – mandatory assessment.Relevant HR certifications or postgraduate studies in Human Resources (preferred).Minimum 5 years of experience leading talent acquisition in large corporations with 5,000+ employees globally.Proven track record of hiring across all levels, including international and multicultural environments.Experience working directly with HR Directors or as part of corporate HR leadership.Solid understanding of recruitment for IT and technical roles.Comfortable working in environments of constant change, growth, mergers, or restructures.Strong stakeholder management, organizational skills, and execution capacity.Data-driven mindset with a strong focus on results and continuous improvement.Excellent professional ethics, collaboration spirit, urgency, and adaptability.Intermediate/advanced Excel.We Offer:Join a top-tier international organization with a strong reputation and growth trajectory.Collaborative and agile work culture.Clear career development opportunities.Competitive compensation package aligned with experience and performance.Key KPIs:Time-to-fill for critical and key positions.Quality of hires (based on onboarding feedback and performance evaluations).Recruitment process adoption and compliance across regions.Employer brand development and market recognition in target talent pools.Percentage of total approved headcount filled.If you meet the above qualifications and are excited to take your career to the next level, apply now. All applications will be treated with strict confidentiality.Only candidates meeting the full criteria will be considered.</v>
+      </c>
+      <c r="F12" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-corporate-talent-acquisition-manager-en-merida-C9CEF22324C60C6161373E686DCF3405#lc=ListOffers-Score3-10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Asesor Telefonico - Experiencia en Productos Financieros</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Hogares Union</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Cuajimalpa de Morelos, Ciudad de México DF</v>
+      </c>
+      <c r="D13" t="str">
+        <v>$ 24,999</v>
+      </c>
+      <c r="E13" t="str">
+        <v>Vacante: Asesor Telefónico con Experiencia en Productos FinancierosDepartamento: Engagement CenterUbicación: Santa Fe CorporativoModalidad: PresencialHorario: Lunes a viernes de 9:00 a.m. a 7:00 p.m., con una hora y media para comer. Contamos con comedor subsidiado al 75%.Descripción del puesto:En Hogares Unión, empresa líder en desarrollos inmobiliarios, buscamos personas con experiencia en ventas telefónicas de productos financieros (créditos, seguros, tarjetas de crédito, etc.) para integrarse a nuestro equipo como Asesor Telefónico. Este rol es clave para contactar, calificar y canalizar prospectos interesados en adquirir una vivienda, brindando una atención profesional y orientada al cierre.Que harás en este puesto:Contactar a prospectos interesados en adquirir una vivienda a través de nuestros canales digitalesDetectar necesidades financieras del cliente y orientar sobre productos hipotecarios disponiblesCalificar prospectos con base en criterios financieros y canalizarlos al equipo comercialRegistrar y actualizar información en el sistema CRMAsegurar una atención telefónica profesional, empática y enfocada en resultadosRequisitos indispensables:Experiencia mínima de 1 año en ventas telefónicas de productos financieros, como:Créditos personales o hipotecariosTarjetas de créditoSeguros (vida, auto, gastos médicos)Servicios financieros bancarios o fintechBachillerato concluido (comprobable)Facilidad de palabra, enfoque comercial y excelente actitud de servicioManejo de PC y herramientas digitalesDisponibilidad para trabajar en el horario establecidoOfrecemos:Sueldo base competitivoComisiones atractivas sin topeIngreso promedio mensual entre 16,000 y 20,000 pesosCapacitación pagadaOportunidad de crecimiento y desarrollo profesionalExcelente ambiente laboralBeneficios adicionales:BienestarTotal Pass: Acceso a mas de 450 gimnasios sin inscripcion ni anualidadLaboratorio Medico Polanco: 40 por ciento de descuento en analisis clinicos y de gabineteEntretenimientoPaquetes de viaje: Playas mexicanas (3 dias y 2 noches), pagos hasta en 36 quincenasAcuario Inbursa: 15 por ciento de descuento en entradas y fotosTicketmaster: 20 a 50 por ciento de descuento en conciertos, obras y mercanciaSix Flags y Hurricane Harbor: Descuentos preferencialesKataplum: 15 por ciento de descuento en efectivo, 10 por ciento con tarjetaDescuentos en campamentos de verano y fiestas infantilesEducaciónOpen English y NextU: 70 por ciento de descuento en idiomas y cursos digitalesUniversidad Tres Culturas:Examen de admisión sin costo10 por ciento en colegiaturas y acreditaciónBeneficio extensivo a familiares directosUniversidad ICEL:20 a 30 por ciento en preparatoria20 a 40 por ciento en carreras ejecutivas y maestrías (requiere promedio mínimo de 80)Sobre nosotros:En Hogares Unión, somos una empresa 100 por ciento mexicana con mas de 45 años de experiencia desarrollando comunidades y construyendo hogares.Nos especializamos en ofrecer soluciones habitacionales accesibles, funcionales y de calidad.¿Te interesa formar parte de un equipo que transforma vidas?Postúlate y ayúdanos a seguir construyendo el futuro de miles de familias mexicanas.</v>
+      </c>
+      <c r="F13" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asesor-telefonico-experiencia-en-productos-financieros-en-cuajimalpa-de-morelos-223553C5AEF6A63361373E686DCF3405#lc=ListOffers-Score3-11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>On site Bilingual Agent - Weekends Off!</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Importante empresa del sector</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Benito Juárez, Ciudad de México DF</v>
+      </c>
+      <c r="D14" t="str">
+        <v>$ 15,000.00</v>
+      </c>
+      <c r="E14" t="str">
+        <v>Your Next Big Opportunity: Bilingual Collections Executive (On-site, M-F)Are you a highly motivated professional with a knack for effective communication and a desire for stability? A premier company specializing in debt recovery solutions for a diverse international client base is expanding its team! We're seeking dedicated individuals to join us as On-site Collections Executives. If you possess experience in sales or collections and are looking for a long-term role with an exciting international scope and a Monday to Friday schedule, this is your chance!We are committed to providing a professional, supportive, and growth-oriented environment where your contributions are valued.We're Looking For Talents With:• Proven Experience: A minimum of 1 year of experience in either collections or sales (both telephone and in-person experience are valuable).• Negotiation Prowess: Demonstrated ability to negotiate effectively, persuade empathetically, and maintain clear, concise communication.• Bilingual Advantage: Intermediate English proficiency (a strong asset for interacting with our international clientele).• System Knowledge: Basic familiarity with digital platforms or CRM systems.• Work-Life Balance: Availability to work consistently on-site, Monday through Friday, allowing for dedicated personal time on weekends.What Sets This Opportunity Apart:• Competitive Earning Potential: Enjoy an estimated monthly income between $12,000 and $17,000 MXN, commensurate with your experience and performance.• Fully Sponsored Training: Kickstart your success with 100% paid, comprehensive training tailored to your role.• True Stability &amp; Growth: Secure a stable position within a professional, well-structured environment, complete with ongoing opportunities for career advancement.• Supportive Environment: Work in a positive atmosphere within comfortable, modern facilities designed for your productivity.• Global Impact: Engage directly with an international project, broadening your professional reach and experience.Your Role Will Involve:• Making and receiving collection calls to manage accounts for external companies based in the U.S.• Accurately documenting and consistently updating case information within our specialized system.• Diligently following up on agreed-upon payment arrangements and expertly addressing any service-related questions or concerns.• Consistently achieving and surpassing key performance indicators related to quality of service, overall effectiveness, and successful debt recovery.Seize this chance for a stable career with international exposure! Apply now!</v>
+      </c>
+      <c r="F14" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-on-site-bilingual-agent-weekends-off-en-benito-juarez-C566E8AADE62103461373E686DCF3405#lc=ListOffers-Score3-12</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>Bilingual Collections Career - International Clients</v>
+      </c>
+      <c r="B15" t="str">
+        <v>Importante empresa del sector</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Miguel Hidalgo, Ciudad de México DF</v>
+      </c>
+      <c r="D15" t="str">
+        <v>$ 15,000.00</v>
+      </c>
+      <c r="E15" t="str">
+        <v>Build Your Career: Bilingual Collections Executive (On-site, Monday-Friday)Are you seeking a career where your efforts directly contribute to an international success story? A premier global provider of collections solutions is actively seeking a Bilingual Collections Executive to join our dedicated on-site team. If you have at least 6 months of experience in collections or sales, possess strong communication skills, and are looking for a stable role with a Monday to Friday schedule and significant opportunities for professional growth, this is your ideal next step!We offer a professional and supportive atmosphere, committed to the development and well-being of our employees as they thrive within our international framework.What We're Searching For:• Relevant Experience: A minimum of 6 months of experience in a collections or sales capacity (experience in call center or in-person environments is valuable).• Effective Communicator: Proven ability to negotiate and persuade with confidence, maintaining clear and impactful communication.• Bilingual Proficiency: Intermediate English proficiency is a significant advantage, enabling seamless interaction with our diverse international clientele.• Basic Tech Skills: Familiarity with digital platforms or CRM software for efficient data management.• On-site Commitment: Readiness to work consistently on-site, Monday through Friday, ensuring work-life balance with free weekends.Unmatched Benefits &amp; Growth:• Excellent Compensation: An estimated monthly salary between $12,000 and $17,000 MXN, reflecting your skills, experience, and performance.• Fully Covered Training: Benefit from 100% paid, comprehensive training designed to give you a strong foundation for success.• Career Trajectory: Enjoy true job stability within a professional and well-structured environment, coupled with clear pathways for continuous professional development and advancement.• Supportive Workplace: Thrive in a positive and collaborative work environment, complemented by comfortable and modern facilities.• Global Experience: Immerse yourself in an international project, providing unique exposure and expanding your professional network and capabilities.Your Responsibilities Will Include:• Performing collection calls to manage accounts for external companies based in the U.S., ensuring professional and effective communication.• Accurately recording and regularly updating all relevant case information within our robust system.• Proactively managing and following up on payment agreements, as well as expertly resolving any service-related inquiries or concerns from clients.• Consistently meeting and exceeding key performance indicators (KPIs) focused on service quality, overall effectiveness, and successful debt recovery outcomes.Don't miss this opportunity to build a rewarding career with international impact! Apply now!</v>
+      </c>
+      <c r="F15" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-bilingual-collections-career-international-clients-en-miguel-hidalgo-5749F76CD24379BC61373E686DCF3405#lc=ListOffers-Score3-13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>Full Stack Mobile Developer</v>
+      </c>
+      <c r="B16" t="str">
+        <v>Pearl Talent</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="D16" t="str">
+        <v>$5</v>
+      </c>
+      <c r="E16" t="str">
+        <v>DescriptionWork Arrangement: Fully remote, overlapping EST working hours.Job Type: Full-timeSalary Range: based on experience, with performance-based bonuses.Work Schedule: 40 hours per week, with core hours between 10 AM – 6 PM EST (flexible based on sprint deadlines).Locations: Remote, open to candidates globally.About Pearl TalentPearl works with the top 1% of candidates from around the world and connects them with the best startups in the US and EU. Our clients have raised over $5B in aggregate and are backed by companies like OpenAI, a16z, and Founders Fund. They’re looking for the sharpest, hungriest candidates who they can consistently promote and work with over many years. Candidates we’ve hired have been flown out to the US and EU to work with their clients, and even promoted to roles that match folks onshore in the US.Hear why we exist, what we believe in, and who we’re building for:Why Work with Us?We’re not just another recruiting firm—we focus on placing candidates with exceptional US and EU founders who prioritize the long-term success of their team members. We also provide retention bonuses at 3, 6, 9, and 12 months, as well as community-driven benefits like an annual retreat.About the CompanyThe company is a fast-growing, design-driven startup at the intersection of social commerce and mobile tech. Backed by strong early traction, they empower creators to express their personal style through a visually rich, community-first experience. The team moves fast, values clean design and code, and gives every engineer a visible impact on product direction.Role OverviewAs a Flutter Full Stack Mobile Engineer, you’ll be responsible for building and maintaining a high-performance mobile app using Flutter and Firebase. You’ll implement UI based on Figma designs, manage backend services with Firebase (Firestore, Auth, Cloud Functions), and contribute across the full development cycle—from feature development to deployment and maintenance. This is a key role for someone who thrives in fast-paced environments and values both technical quality and user experience.Key ResponsibilitiesFront-End Development:Own the Flutter mobile app end to end; implement sleek, responsive UI aligned with the platform’s design vision.Translate Figma designs into clean, maintainable Dart code with pixel-level precision.Work closely with product and design teams to iterate quickly on user-facing features.Back-End Development:Manage all Firebase services, including Firestore, Cloud Functions, Auth, and Storage.Optimize database structure and queries for performance and scalability.Implement secure serverless functions for key operations like permissions and user interactions.Deployment &amp; QA:Maintain a clean codebase with proper version control, CI/CD pipelines (e.g., Bitrise or GitHub Actions), and testing standards.Lead debugging, performance monitoring, and ensure stable releases to iOS and Android.Cross-functional Collaboration:Collaborate with product and design stakeholders to align on priorities and technical feasibility.Help translate feature ideas into actionable development plans.RequirementsMust-Have:5+ years professional experience in Flutter &amp; Firebase stackStrong understanding of asynchronous Dart programming, widget lifecycle, and state management (e.g., Bloc, Riverpod)Hands-on experience with Firebase: Firestore, Functions, Auth, Cloud StorageClean, maintainable, modular coding habitsStartup-minded: comfortable with ambiguity, self-directed, fast iteration cyclesExcellent communication and remote collaboration skillsNice-to-Have:Prior experience in social apps, eCommerce, or creator toolsBackground in UI/UX design or strong appreciation for design systemsFamiliarity with App Store &amp; Play Store deploymentExperience integrating third-party APIs (e.g., Shopify, Instagram, Stripe)BenefitsCompensation PackageCompetitive Salary: Based on experience and skillsRemote Work: Fully remote—work from anywhereGenerous PTO: Ample paid time off to rest and rechargeHealth Coverage: HMO coverage after 3 months for full-time employeesDirect Mentorship: Grow through guidance from international industry expertsLearning &amp; Development: Ongoing access to resources for professional growthGlobal Networking: Work and connect with professionals around the worldWork-Life Balance: Flexible hours that support a healthy work-life balanceOur Recruitment ProcessApplicationScreeningTop-grading InterviewSkills AssessmentClient InterviewJob OfferClient OnboardingReady to Join Us?If this role aligns with your skills and career goals, we’d love to hear from you. Apply now to take the next step in your journey with Pearl.</v>
+      </c>
+      <c r="F16" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-full-stack-mobile-developer-en-argentina-3D05C6B6A8BAD64161373E686DCF3405#lc=ListOffers-Score3-14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>Account Manager / Customer Success Representative</v>
+      </c>
+      <c r="B17" t="str">
+        <v>Pearl Talent</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Chihuahua, Chihuahua</v>
+      </c>
+      <c r="D17" t="str">
+        <v>$5</v>
+      </c>
+      <c r="E17" t="str">
+        <v>DescriptionJob Type: Full-time (40 hours/week)Salary Range: based on experience, with performance-based bonuses.Work Schedule: Monday to Friday, ideally 9:00 AM – 6:00 PM ESTLocations: Remote — candidates must be in EST or have 4+ hours overlapAbout Pearl TalentPearl works with the top 1% of candidates from around the world and connects them with the best startups in the US and EU. Our clients have raised over $5B in aggregate and are backed by companies like OpenAI, a16z, and Founders Fund. They’re looking for the sharpest, hungriest candidates who they can consistently promote and work with over many years. Candidates we’ve hired have been flown out to the US and EU to work with their clients, and even promoted to roles that match folks onshore in the US.Hear why we exist, what we believe in, and who we’re building for:Why Work with Us?We’re not just another recruiting firm—we focus on placing candidates with exceptional US and EU founders who prioritize the long-term success of their team members. We also provide retention bonuses at 3, 6, 9, and 12 months, as well as community-driven benefits like an annual retreat.About the CompanyThe company is a fast-growing, design-driven startup at the intersection of social commerce and mobile tech. Backed by strong early traction, they empower creators to express their personal style through a visually rich, community-first experience. The team moves fast, values clean design and code, and gives every collaborator a visible impact on product direction.Role OverviewWe’re seeking a Latin America-based high-performing Account Manager / Customer Success Representative to scale the vendor experience and build white-glove relationships with clients. This role is instrumental in owning post-sale success, ensuring long-term client happiness, and identifying growth and referral opportunities across an expanding network of clients and connectors.You will be the key custodian of the client experience—building trust, capturing feedback, anticipating issues, and driving value for every vendor you support.Key ResponsibilitiesOwn and manage post-sale relationships with 20–30 vendor accountsBuild detailed onboarding plans, SOPs, and CRM documentation (HubSpot, Notion, etc.)Conduct structured onboarding and re-onboarding processes that feel personalized and eliteCapture and maintain detailed vendor insights—understanding their needs, tone, and preferencesAct as the internal voice of the vendor, surfacing feedback and performance blockers to product and connector teamsRun regular check-ins, collect NPS, initiate feedback loops, and subtly request referralsEnsure vendors receive immediate value through prompt matching with active connectorsTrack all account data, performance metrics, and interaction notes in HubSpot and internal dashboardsAssist with referral generation or upsell motions as appropriateSupport events and community initiatives (e.g., founder dinners, intro strategy planning)Collaborate with Connector Success teammates to align vendors with ideal connector profilesRequirementsMust-Have:Flawless written and verbal EnglishFamiliarity with HubSpotStrong multitasking skills—capable of managing 20–30 relationships concurrentlyExtreme attention to detail, particularly with CRM data, call notes, and context trackingPolished, warm, and professionally presentable for a client-facing roleHighly organized, self-managing, and emotionally intelligentNice-to-Have:Background in B2B customer success, partnerships, or account managementExperience supporting startups, SaaS platforms, or relationship-driven tech businessesExposure to the startup community, founder ecosystem, or high-end networking circlesFamiliarity with OpenPhone or similar VoIP toolsPassion for human-centric products or servicesExperience working in remote, asynchronous, fast-moving environmentsTools &amp; Communication Channels:CRM: HubSpot, SalesforceDialers: OpenPhoneMessaging: Slack, ZoomDocumentation: Notion, Google DocsScheduling: Calendly, Google CalendarBenefitsCompensation PackageCompetitive Salary: Based on experience and skillsRemote Work: Fully remote—work from anywhereGenerous PTO: Ample paid time off to rest and rechargeHealth Coverage: HMO coverage after 3 months for full-time employeesDirect Mentorship: Grow through guidance from international industry expertsLearning &amp; Development: Ongoing access to resources for professional growthGlobal Networking: Work and connect with professionals around the worldWork-Life Balance: Flexible hours that support a healthy work-life balanceOur Recruitment ProcessApplicationScreeningTop-grading InterviewSkills AssessmentClient InterviewJob OfferClient OnboardingReady to Join Us?If this role aligns with your skills and career goals, we’d love to hear from you. Apply now to take the next step in your journey with Pearl.</v>
+      </c>
+      <c r="F17" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-account-manager-customer-success-representative-en-chihuahua-4E60B347562C819161373E686DCF3405#lc=ListOffers-Score3-15</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>Sales Team Lead</v>
+      </c>
+      <c r="B18" t="str">
+        <v>Pearl Talent</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Chihuahua, Chihuahua</v>
+      </c>
+      <c r="D18" t="str">
+        <v>$5</v>
+      </c>
+      <c r="E18" t="str">
+        <v>DescriptionJob Type: Full-time (40 hours/week)Salary Range: based on experience, with performance-based bonuses.Work Schedule: Monday to Friday, ideally 9:00 AM – 6:00 PM ESTLocations: Remote — candidates must be in EST or have 4+ hours overlapAbout Pearl TalentPearl works with the top 1% of candidates from around the world and connects them with the best startups in the US and EU. Our clients have raised over $5B in aggregate and are backed by companies like OpenAI, a16z, and Founders Fund. They’re looking for the sharpest, hungriest candidates who they can consistently promote and work with over many years. Candidates we’ve hired have been flown out to the US and EU to work with their clients, and even promoted to roles that match folks onshore in the US.Hear why we exist, what we believe in, and who we’re building for:Why Work with Us?We’re not just another recruiting firm—we focus on placing candidates with exceptional US and EU founders who prioritize the long-term success of their team members. We also provide retention bonuses at 3, 6, 9, and 12 months, as well as community-driven benefits like an annual retreat.Role OverviewWe’re seeking two high-performing Sales Enablement Team Managers, based in Latin America, to establish and scale both our inbound and outbound sales operations. These roles are instrumental in building the operational infrastructure, setting KPIs, and leading future teams of individual contributors to drive revenue growth and customer success.As a key leader, you will initially collaborate directly with senior leadership and actively participate in calls to refine processes, develop SOPs, and set the foundation for scalable sales functions. Once established, you will transition to managing a team, ensuring performance, coaching, and continual optimization of our sales strategies.Key ResponsibilitiesPersonally conduct inbound/outbound calls during the initial ramp period to assess and improve sales processes.Develop, document, and implement detailed onboarding plans, SOPs, FAQs, and sales playbooks to support scalable team operations.Define and monitor sales KPIs, ensuring team accountability and performance optimization.Build and manage a high-performing team of sales individual contributors, providing coaching, call reviews, and performance feedback.Act as a strategic partner to leadership, providing regular reports and insights on sales metrics, pipeline progress, and revenue outcomes.Optimize inbound and outbound sales processes through data-driven experimentation and best practices.Lead team training initiatives, including negotiation tactics, objection handling, upselling, and cross-selling techniques.Foster clarity of roles, expectations, and performance standards within the team.Collaborate on the implementation of sales tools and systems to improve efficiency and tracking.Serve as the internal advocate for customer insights, surfacing feedback to inform product and operational strategies.RequirementsMust-Have:Bilingual in Spanish and English.Proven leadership experience managing sales teams, with a track record of driving revenue growth.Strong sales acumen with advanced negotiation and objection handling skills.Experience developing sales processes, defining KPIs, and coaching sales representatives.Data-driven approach to performance management and sales optimization.Excellent written and verbal English communication skills.Highly organized, self-motivated, and adaptable to fast-paced, remote environments.Nice-to-Have:Background in telecom, SaaS, or relationship-driven tech businesses.Experience building remote, distributed sales teams.Familiarity with CRM systems such as HubSpot or Salesforce.Exposure to VoIP tools like OpenPhone.Passion for human-centric products and services.Tools &amp; Communication Channels:CRM: HubSpot, SalesforceDialers: OpenPhoneMessaging: Slack, ZoomDocumentation: Notion, Google DocsScheduling: Calendly, Google CalendarBenefitsCompensation PackageCompetitive Salary: Based on experience and skillsRemote Work: Fully remote—work from anywhereGenerous PTO: Ample paid time off to rest and rechargeHealth Coverage: HMO coverage after 3 months for full-time employeesDirect Mentorship: Grow through guidance from international industry expertsLearning &amp; Development: Ongoing access to resources for professional growthGlobal Networking: Work and connect with professionals around the worldWork-Life Balance: Flexible hours that support a healthy work-life balanceOur Recruitment ProcessApplicationScreeningTop-grading InterviewSkills AssessmentClient InterviewJob OfferClient OnboardingReady to Join Us?If this role aligns with your skills and career goals, we’d love to hear from you. Apply now to take the next step in your journey with Pearl.</v>
+      </c>
+      <c r="F18" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-sales-team-lead-en-chihuahua-F67F7246DC04C0EC61373E686DCF3405#lc=ListOffers-Score3-16</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>Full Stack Python Engineer</v>
+      </c>
+      <c r="B19" t="str">
+        <v>Pearl Talent</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Colombia</v>
+      </c>
+      <c r="D19" t="str">
+        <v>$5</v>
+      </c>
+      <c r="E19" t="str">
+        <v>DescriptionWork Arrangement: Fully remote, overlapping EST working hours.Job Type: Full-timeSalary Range: based on experience, with performance-based bonuses.Work Schedule: 40 hours per week, with core hours between 9 AM – 5 PM EST (flexible based on sprint deadlines).Locations: Remote, open to candidates globally.About Pearl TalentPearl works with the top 1% of candidates from around the world and connects them with the best startups in the US and EU. Our clients have raised over $5B in aggregate and are backed by companies like OpenAI, a16z, and Founders Fund. They’re looking for the sharpest, hungriest candidates who they can consistently promote and work with over many years. Candidates we’ve hired have been flown out to the US and EU to work with their clients, and even promoted to roles that match folks onshore in the US.Hear why we exist, what we believe in, and who we’re building for:Why Work with Us?We’re not just another recruiting firm—we focus on placing candidates with exceptional US and EU founders who prioritize the long-term success of their team members. We also provide retention bonuses at 3, 6, 9, and 12 months, as well as community-driven benefits like an annual retreat.Role OverviewAs a Full Stack Python Engineer, you’ll take ownership of our Integrations Platform - the infrastructure that powers external system connectivity and real-time, AI-driven workflows. This role blends deep backend expertise with strong frontend skills, as you’ll be building both robust API integrations and intuitive UI components for our visual workflow builder. You’ll work across the full product lifecycle, translating complex business needs into scalable software that directly impacts customers. Ideal for engineers who thrive at the intersection of product and code, and who want to help define the future of intelligent, configurable SaaS.Key ResponsibilitiesBack-End Development:Own the integrations platform that connects external systems to real-time, AI-driven workflows.Design and scale FastAPI services that support dynamic, customer-configurable workflows.Build reusable, intelligent backend nodes using Python, FastAPI, and LangGraph to automate key business logic.Interface with both modern APIs and legacy enterprise systems (e.g., SOAP/XML).Optimize PostgreSQL queries and ensure high system reliability with Redis-backed caching.Front-End Development:Develop and maintain the visual workflow builder using React and TypeScript (Next.js).Translate complex backend logic into clear, intuitive UI components used directly by customers.Work closely with product and design to ensure frontend UX aligns with customer needs.AI &amp; Infrastructure Integration:Implement AI-powered automation nodes using OpenAI, LangChain, and Google Cloud AI services.Maintain clean, containerized deployment workflows using Docker and Google Cloud Platform.Cross-functional Collaboration:Partner with product stakeholders to shape features from concept to production.Translate real-world customer pain points into scalable software solutions.Contribute to product strategy with a strong understanding of usability and business impact.RequirementsMust-Have:5+ years of professional full-stack engineering experienceSolid experience with Python (FastAPI), PostgreSQL, and modern backend architectureFrontend proficiency in React, TypeScript, and component-based designExperience delivering customer-facing features - not just internal toolsStrong product thinking - you care about the "why" behind the codeComfortable working with both RESTful and legacy APIs (e.g., SOAP/XML)Strong communication skills and remote collaboration habitsNice-to-Have:Experience with workflow automation tools or visual buildersFamiliarity with logistics platforms or enterprise system integrationsBackground in AI/ML tools (LangChain, LangGraph, OpenAI APIs)Hands-on with Docker and deployment on Google CloudWhat You’ll Love About This RoleYou’ll be building software that feels like magic to our users - combining powerful backend workflows, sleek UI, and AI to automate the world's most complex industries. This is your chance to take ownership of critical systems and help shape a platform poised to redefine how vertical SaaS gets built.BenefitsCompensation PackageCompetitive Salary: Based on experience and skillsRemote Work: Fully remote—work from anywhereGenerous PTO: Ample paid time off to rest and rechargeDirect Mentorship: Grow through guidance from international industry expertsLearning &amp; Development: Ongoing access to resources for professional growthGlobal Networking: Work and connect with professionals around the worldWork-Life Balance: Flexible hours that support a healthy work-life balanceOur Recruitment ProcessApplicationScreeningTop-grading InterviewSkills Assessment: Technical Assessment + Internal AssessmentClient InterviewJob OfferClient OnboardingReady to Join Us?If this role aligns with your skills and career goals, we’d love to hear from you. Apply now to take the next step in your journey with Pearl.</v>
+      </c>
+      <c r="F19" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-full-stack-python-engineer-en-colombia-CD530EDE89DB0E5461373E686DCF3405#lc=ListOffers-Score3-17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>Growth Optimization Lead - CRO and Marketing Automation</v>
+      </c>
+      <c r="B20" t="str">
+        <v>Go Bravo</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Miguel Hidalgo, Ciudad de México DF</v>
+      </c>
+      <c r="D20" t="str">
+        <v>$ 40,000.00</v>
+      </c>
+      <c r="E20" t="str">
+        <v>About Bravo:Bravo is a fintech company with 15 years of experience helping people in Latin America and Europe improve their financial health. With operations in 6 countries and a strong acquisition engine, we are committed to innovation, scale, and impact. Were now looking for someone to take conversion and lead nurturing to the next level.Role Overview:Were looking for a strategic and analytical Growth Optimization Lead who can drive impact across two critical areas: Conversion Rate Optimization (CRO) and Marketing Automation. Youll be responsible for improving lead-to-client conversion by optimizing our web funnel and boosting our automation flows to move leads down the funnel efficiently. You wont be aloneyoull lead through collaboration with two highly capable teammates:Aldo, our technical CRO implementer (web development, tracking, events)Marcos, who leads marketing automation across all countriesThis is not a design or UI role. You wont manage designers or be responsible for visual assets. This is a data-informed, performance-driven, execution-focused role.Key Responsibilities:Own and lead the CRO roadmap: prioritize tests and improvements to landing pages and formsWork closely with Aldo to implement A/B tests, tracking, and performance enhancementsCollaborate with product and engineering to unlock improvements (site speed, UX bugs, event tracking)Identify and launch marketing automation opportunities (lead scoring, nurturing, email journeys, WhatsApp flows)Coordinate with Marcos to improve lead conversion through automation, especially in Mexico and potentially ColombiaTrack performance KPIs: conversion rate, open rate, click-through rate, cost per qualified leadBring an experimental mindsetrun and learn from data-driven experimentsAct as a bridge between marketing, tech, and product to keep growth priorities alignedWhat Were Looking For:36 years of experience in digital growth, CRO, marketing automation, or product growthStrong understanding of landing page best practices, tracking, and A/B testing tools (GA4, GTM, Hotjar, Optimize, etc.)Experience working with email/CRM tools like Iterable, Braze, HubSpot, or similarAnalytical mindset with ability to extract actionable insights from performance dataExcellent project management and prioritization skillsAbility to work cross-functionally with developers, marketers, and product teamsBonus: Experience in fintech, financial services, or lead generation companiesBonus: SQL or light technical background (not required but valued)What We Offer:The opportunity to lead high-impact projects across key growth leversA collaborative, high-performance culture that values ownership and experimentationCareer path growth opportunitiesCompetitive salary and benefitsHybrid work environment (some on-site presence in Mexico City required)</v>
+      </c>
+      <c r="F20" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-growth-optimization-lead-cro-and-marketing-automation-en-miguel-hidalgo-8A0A7155ECC9F3F561373E686DCF3405#lc=ListOffers-Score3-18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>Developer Front End</v>
+      </c>
+      <c r="B21" t="str">
+        <v>Importante empresa del sector</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Miguel Hidalgo, Ciudad de México DF</v>
+      </c>
+      <c r="D21" t="str">
+        <v>$ 25,000.00</v>
+      </c>
+      <c r="E21" t="str">
+        <v>Intégrate a una empresa con más de 35 años en el mercado, genera estabilidad y crecimiento profesional como: Developer FrontEnd.Descripción del PuestoEl desarrollador frontend se encarga de crear la interfaz de un sitio web o aplicación a través de código Para este proyecto el candidato debe de contar con el conocimiento necesario para poder darle mantenimiento a una aplicación web desarrollada en Angular 7.Actividades Principales1: Brindar la atención a los usuarios que presenten incidencias en el uso de la plataforma para resolver dichas incidencias2: Mantener Actualizados las librerías utilizadas por las diversas plataformas Web3: Mantener Actualizadas las diversas versiones sobre las cuales están construidas las plataformas como por ejemplo Versiones de Angular, Versiones de Firebase 4:Robustecer la seguridad actual de las aplicaciones por medio de ofuscamiento de código, implementación de tokens de Seguridad, encriptación de la información, y Best Practices que recomienda Google.5: Optimizar los procesos que hoy se tienen implementados que están más propensos a sufrir fallas, como por ejemplo la sincronización de información6: Elaboración de pruebas unitarias para robustecer la calidad de las plataformas, Mobile7: Modificaciones en la arquitectura de las aplicaciones que nos permita tener modularidad8: Robustecer la Aplicación Web para evitar errores en la captura de información. 9:Robustecer la calidad de la información que se registra dentro de la base de datos mediante puntos de control.Skills TécnicasRequerido: Angular, Observables, RXJS, NgZorro, Bootstrap, HTML%, CSS, Firebase DataBase, Firebase Cloud Functions, React.JS, Next.JSDeseable: Firebase Hosting, REDUXOfrecemos:Lunes a Viernes de 9:00 a 6:00Zona Polanco en un esquema HíbridoSueldo base neto $30,000 neto al mes + prestaciones de ley</v>
+      </c>
+      <c r="F21" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-developer-front-end-en-miguel-hidalgo-9014778E2FE3818161373E686DCF3405#lc=ListOffers-Score3-19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>Night Shift Technical Support Agent (Bilingual) - MXN 19K Salary</v>
+      </c>
+      <c r="B22" t="str">
+        <v>Importante empresa del sector</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Cuauhtémoc, Ciudad de México DF</v>
+      </c>
+      <c r="D22" t="str">
+        <v>$ 16,000.00</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Night Owl Opportunity: Tier 1 Technical Support Agent (Overnight Shift)Are you ready to become part of a thriving corporate environment with an international scope? GlobalTech Corporation, a leader in providing technological solutions for the U.S. tax sector, is looking for dedicated professionals for our Tier 1 Technical Support team. This role focuses on delivering exceptional service and resolving technical incidents for our corporate clients.Your Role and Responsibilities:• Provide first-level technical support and resolve incidents remotely.• Accurately log all case details in our ticketing system.• Ensure timely follow-up on service requests and escalate complex problems when necessary.• Maintain a clear, professional, and solution-driven user experience for all clients.• Collaborate effectively with cross-functional technical and operational teams.Ideal Candidate Profile:• Education: High school diploma (minimum); a Bachelor's degree or technical certification is preferred.• Language: Advanced English (C1 level is essential).• Experience: Minimum of 6 months to 1 year of proven experience in technical support or customer service.• Technical Skills: Basic knowledge of ticketing platforms, remote support tools, and various digital applications.• Key Skills: Strong communication, organizational, and customer-centric abilities.• Work Schedule: Availability to work Monday to Friday, from 12:00 AM to 7:00 AM (Overnight Shift).Benefits &amp; Compensation:• Comprehensive Monthly Salary: $19,000 MXN (night bonus already included).• Direct Hire: Immediate direct hiring by GlobalTech Corporation.• Training: Full initial technical training provided to ensure your success.• Stability &amp; Growth: Enjoy job stability with clear opportunities for professional advancement.• Work Environment: A supportive and excellent work environment.• Payment: Punctual bi-weekly payments.Work Location:• Alcaldía Miguel Hidalgo, CDMX• Modality: On-site.• Availability: Immediate.Take the next step in your tech career. Apply for our Overnight Support role!</v>
+      </c>
+      <c r="F22" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-night-shift-technical-support-agent-bilingual-mxn-19k-salary-en-cuauhtemoc-1440B2DA4C9445AB61373E686DCF3405#lc=ListOffers-Score3-0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>Work From Home Shopify Engineer / Ref. 0176</v>
+      </c>
+      <c r="B23" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Aguascalientes, Aguascalientes</v>
+      </c>
+      <c r="D23" t="str">
+        <v>$ 3,700</v>
+      </c>
+      <c r="E23" t="str">
+        <v>At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.Shopify Engineer at BairesDevWe are looking for a Shopify Engineer to join our Development team and help the client take its eCommerce platform to the next level. The Shopify Engineer will be responsible for designing, developing, and maintaining the clients Shopify website and integrations with other systems. This is an excellent opportunity for those professionals looking to develop in one of the fastest-growing companies in the industry!What You Will Do:- Collaborate with the eCommerce team to understand business requirements and translate them into technical solutions.- Design and implement custom Shopify themes and templates.- Build and maintain custom Shopify apps and plugins.- Integrate Shopify with other systems such as CRM, ERP, and payment gateways.- Ensure website performance and security are optimized.- Troubleshoot and resolve website issues.Heres what we are looking for:- 3+ years of experience with Shopify Liquid.- 2+ years of experience with a JS Framework (React, NextJS, VueJS, etc).- Proven track record in Shopify App development.- Shopify headless architecture experience (stores/apps) is desirable, but not mandatory.- Upper English level.How we do make your work (and your life) easier:- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+      <c r="F23" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-work-from-home-shopify-engineer-ref-0176-en-aguascalientes-E73911D6D1CFC2E461373E686DCF3405#lc=ListOffers-Score3-1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Web master</v>
+      </c>
+      <c r="B24" t="str">
+        <v>Mia hotels and Resorts</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Benito Juárez, Quintana Roo</v>
+      </c>
+      <c r="D24" t="str">
+        <v>No especificado</v>
+      </c>
+      <c r="E24" t="str">
+        <v>El corporativo Mia Hotels &amp; Resorts está en búsqueda de Web Master.ObjetivoEl Web máster será responsable de la administración, mantenimiento y optimización del sitio web de MÍA Reef Isla Mujeres. Su objetivo principal es garantizar una experiencia de usuario óptima, supervisar el rendimiento del sitio y coordinar con los departamentos de marketing y ventas para implementar estrategias que aumenten la conversión y retención de clientes.PerfilExperiencia de 3 años máximoExperiencia en hoteleríaConocimiento en RoibackRequerimientos: Lenguajes que debe dominar sí o sí: HTML5, CSS3, JavaScript (nivel medio, NEXT JS 10), jQuery, Bootstrap.Experiencia previa recomendada: CMS Roiback o manejo de CMS hoteleros similares.Deseable: manejo de SEO, Tag Manager y conocimientos básicos de análisis de datos (ej. carritos abandonados, conversiones).OfrecemosSalario competitivo, prestaciones de ley, seguro de vida, servicios de telemedicina 24/7.</v>
+      </c>
+      <c r="F24" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-web-master-en-benito-juarez-908410F3B60356AD61373E686DCF3405#lc=ListOffers-Score3-2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>Work From Home Java Team Lead / Ref. 0003E</v>
+      </c>
+      <c r="B25" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Guanajuato, Guanajuato</v>
+      </c>
+      <c r="D25" t="str">
+        <v>$ 3,700</v>
+      </c>
+      <c r="E25" t="str">
+        <v>At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.Java Team Lead at BairesDevIf you are a natural leader with mentoring experience, this job is for you! As a Java Team Lead in our Development Team, your mission will be technically overseeing a team of experienced front and back developers. You will work in a fast-paced global team in charge of pushing innovation to the next level. Innovation is at the heart of the BairesDev strategy.What You Will Do:- Technically own different modules of the platform, including design, development, &amp; integration.- Design and write clean, robust, server-side code.- Perform research and development to evaluate new technologies, and ideas and communicate value for the company.Heres what we are looking for:- 7+ years of experience in Java.- Advance agile methodologies management.- Advanced Design Patterns knowledge.- Advanced IT infrastructure knowledge.- Experience with Security.- Experience developing/integrating with large-scale applications.- Fully specialized in Backend, Frontend development areas.- Strong experience in coding reviews and managing CI/CD pipelines.- Expert understanding of the benefits/weaknesses of the clients requirements.- Advanced knowledge of the tradeoffs of choosing a certain technology.- Strong experience participating in meetings with clients, users, and stakeholders.- Experience leading teams, allocating tasks, identifying risks, decision making, estimating tasks, managing conflicts, and planning.- Advanced English level.How we do make your work (and your life) easier:- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+      <c r="F25" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-work-from-home-java-team-lead-ref-0003e-en-guanajuato-975D02100632335661373E686DCF3405#lc=ListOffers-Score3-3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>Work From Home Golang Tech Lead / Ref. 0138</v>
+      </c>
+      <c r="B26" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C26" t="str">
+        <v>San Luis Potosí, San Luis Potosí</v>
+      </c>
+      <c r="D26" t="str">
+        <v>$ 3,700</v>
+      </c>
+      <c r="E26" t="str">
+        <v>At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.Golang Tech Lead at BairesDevIf you are a natural leader with mentoring experience, this job is for you! As a Golang Tech Leader in our Development Team, your mission will be technically overseeing a team of experienced front and back developers. You will work in a fast-paced global team in charge of pushing the innovation to the next level. Innovation is at the heart of the BairesDev strategy.What You Will Do:- Fostering a high-performance engineering culture whilst growing and leading your tribe.- Reviewing and contributing to code whilst utilizing best practices to balance the creation of new functionalities whilst meeting the needs of existing customers.- Collaborating with cross-regional teams to collectively design, develop and release localised MVPs.Heres what we are looking for:- 10+ years of experience working as a developer.- 7+ years of experience in Golang.- Advance agile methodologies management.- Advanced Design Patterns knowledge.- Advanced IT infrastructure knowledge.- Experience with Security.- Experience developing/integrating with large-scale applications.- Fully specialized in Backend, Frontend development areas.- Strong experience in coding reviews and managing CI/CD pipelines.- Expert understanding of the benefits/weaknesses of clients requirements.- Advanced knowledge of the tradeoffs of choosing a certain technology.- Strong experience participating in meetings with clients, users, and stakeholders.- Experience leading teams, allocating tasks, identifying risks, decision making, estimating tasks, managing conflicts, planning.- Advanced English Level.How we do make your work (and your life) easier:- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+      <c r="F26" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-work-from-home-golang-tech-lead-ref-0138-en-san-luis-potosi-6AC14C53E3DB8CD461373E686DCF3405#lc=ListOffers-Score3-4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>Work From Home Fullstack Node + Nest + React Tech Lead / Ref. 0111</v>
+      </c>
+      <c r="B27" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Centro, Tabasco</v>
+      </c>
+      <c r="D27" t="str">
+        <v>$ 3,700</v>
+      </c>
+      <c r="E27" t="str">
+        <v>At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.Fullstack Node + Nest + React Tech Lead at BairesDevIf you are a natural leader with mentoring experience, this job is for you! As a Node Tech Leader in our Development Team, your mission will be technically overseeing a team of experienced front and back developers. You will work in a fast-paced global team in charge of pushing innovation to the next level. Innovation is at the heart of the BairesDev strategy.What You Will Do:- Architect Bandit backend systems using the best practices.- Implement and iterate features in a tactical manner and at a rapid pace.- Work collaboratively and efficiently across functional teams in a fast-paced early-stage startup environment.- Design, extend, and implement APIs.- High engineering quality standards through code reviews, unit tests, and analytics.- Create engineering efficiencies through automation and development of tools.- Define engineering processes for product launches and releases.- Help us grow the world-class engineering team by running technical interviews.Heres what we are looking for:- 7+ years of experience in React/Node.- Experience with SQL and NoSQL Databases.- Experience with Microservices and the Cloud.- Experience using the Nest.js framework.- IT infrastructure knowledge.- Intermediate agile methodologies management.- Strong understanding of best practices, SOLID principles, CLEAN Code, and scalable solutions.- Knowledge of AWS (RDS, SNS, SQS, Lambda), REST, GraphQL, TypeScript, Terraform and CircleCI.- Experience developing entire applications from scratch.- Experience in automated tests, and CI/CD pipelines.- Strong experience with Version control.- Advanced English level.How we do make your work (and your life) easier:- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+      <c r="F27" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-work-from-home-fullstack-node-nest-react-tech-lead-ref-0111-en-centro-32D9935BD9643A3161373E686DCF3405#lc=ListOffers-Score3-5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>Analista de créditos y cobranza - Turno Completo</v>
+      </c>
+      <c r="B28" t="str">
+        <v>AUTOLINEAS JR S.A. DE C.V.</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Azcapotzalco, Ciudad de México DF</v>
+      </c>
+      <c r="D28" t="str">
+        <v>$ 12,000.00</v>
+      </c>
+      <c r="E28" t="str">
+        <v>El objetivo del puesto es el de apoyar al Coordinador de Crédito y Cobranza en el seguimiento y recuperación de las cuentas por cobrar de JR Paquetería.Responsabilidades generales:- Revisar y clasificar los documentos de cuentas por cobrar por cliente y día de cobro.- Elaborar los contra recibos de los clientes por todas las facturas de cartas porte recibidas en NextPack.- Entregar los contra recibos con todos los documentos soporte al Analista de - Crédito y Cobranza (1), con la finalidad de que se gestione la entrega al cliente.- Enviar por correo electrónico los contra recibos a los clientes.- Planear la cobranza semanal que se llevará a cabo, de acuerdo con los contra recibos de los clientes.- Realizar las labores de cobranza con los clientes, ya sea por correo electrónico, llamada telefónica o a través del Mensajero.- Elaborar las notas de crédito o de cargo necesarias en NextPack, solicitando la liberación y aprobación de estas al Coordinador de Crédito y Cobranza y Coordinador de Ingresos.- Aplicar los pagos realizados por los clientes a los contra recibos correspondientes en NextPack.- Entregar al Analista de Crédito y Cobranza (1) los cortes de caja realizados con los soportes de pago para su revisión y liquidación.- Elaborar los complementos de pago para las facturas correspondientes de los clientes.Ofrecemos:- $12000 brutos mensuales (incluido bono de puntualidad)- $1000 bonos mensuales por cobranza (se paga los días 15 de cada mes)- Seguro de vida- Caja de ahorro- Utilidades- Prestaciones de ley desde el día uno- Oportunidad de crecimiento- Capacitación constante</v>
+      </c>
+      <c r="F28" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-analista-de-creditos-y-cobranza-turno-completo-en-azcapotzalco-4EB95573E1B3A9B361373E686DCF3405#lc=ListOffers-Score3-6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>Hyatt Abogado Jr - Corporate Cancun</v>
+      </c>
+      <c r="B29" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Benito Juárez, Quintana Roo</v>
+      </c>
+      <c r="D29" t="str">
+        <v>$ 18,000.00</v>
+      </c>
+      <c r="E29" t="str">
+        <v>Who We AreAt Hyatt, we believe in the power of belonging and creating a culture of care, where our colleagues become family. Since 1957, our colleagues and guests have been at the heart of our business and helped Hyatt become one of the world's best and fastest-growing hospitality brands. Our transformative growth and the addition of new hotels, brands, and business lines can open the door for exciting career and growth opportunities for our colleagues.As we continue to grow, we never lose sight of what’s most important: People. We turn trips into journeys, encounters into experiences, and jobs into careers.Why Now?This is an exciting time to be at Hyatt. We are growing rapidly and are looking for passionate changemakers to be a part of our journey. The hospitality industry is resilient and continues to offer dynamic opportunities for upward mobility, and Hyatt is no exception.How We Care For Our PeopleOur purpose sets us apart—to care for people so they can be their best. Every business decision is made through the lens of our purpose, and it informs how we have and will continue to support each other as members of the Hyatt family. Our care for our colleagues is the key to our success. We’re proud to have earned a place on Fortune’s prestigious 100 Best Companies to Work For® list for the last ten years. This recognition is a testament to how our Hyatt family continues to come together to care for one another, our commitment to a culture of inclusivity, empathy, and respect, and making sure everyone feels like they belong.At HYATT We are looking for Abogado Jr, you will play a key role in the legal department, supporting corporate and contractual management.Your Responsibilities:• You will draft and review contracts• You will manage legal files and corporate books• You will consult and follow up on legal matters• You will assist in litigation and dispute resolution• You will coordinate notarial and administrative proceduresYour Profile:• Law degree• 1-2 years of experience in a similar role• Intermediate-Advanced English• Proficiency in Microsoft Office Suite and video conferencing tools.Apply now and take the next step in your IT career!Care Connects Us!We care for people so they can be their best!</v>
+      </c>
+      <c r="F29" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-hyatt-abogado-jr-corporate-cancun-en-benito-juarez-C71AB1537FC1E3D261373E686DCF3405#lc=ListOffers-Score3-7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Work From Home Python Tech Lead / Ref. 0071</v>
+      </c>
+      <c r="B30" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Querétaro, Querétaro</v>
+      </c>
+      <c r="D30" t="str">
+        <v>$ 3,700</v>
+      </c>
+      <c r="E30" t="str">
+        <v>At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.Python Tech Lead at BairesDevIf you are a natural leader with mentoring experience, this job is for you! As a Python Tech Leader in our Development Team, your mission will be technically overseeing a team of experienced front and back developers. You will work in a fast-paced global team in charge of pushing the innovation to the next level. Innovation is at the heart of the BairesDev strategy.What You Will Do:- Work closely alongside their Engineering and Business Stakeholders to support the delivery of the project.- Be able to manage your time effectively to focus on coding as well as supporting junior members.- Integrate with the DevOps team to maintain tasks.- Make architectural decisions keeping the future of a growing business in mind.Heres what we are looking for:- Advance agile methodologies management.- Advanced Design Patterns knowledge.- Advanced IT infrastructure knowledge.- Experience with Security.- Experience developing/integrating with large-scale applications.- Fully specialized in Backend, Frontend development areas.- Strong experience in coding reviews and managing CI/CD pipelines.- Expert understanding of the benefits/weaknesses of clients requirements.- Advanced knowledge of the tradeoffs of choosing a certain technology.- Strong experience participating in meetings with clients, users, and stakeholders.- Experience leading teams, allocating tasks, identifying risks, decision making, estimating tasks, managing conflicts, planning.How we do make your work (and your life) easier:- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+      <c r="F30" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-work-from-home-python-tech-lead-ref-0071-en-queretaro-23FCA6C7A09DB1CE61373E686DCF3405#lc=ListOffers-Score3-8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Customer Service Especialist - Bepensa (Base salary and additional benefits)</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Bepensa</v>
+      </c>
+      <c r="C31" t="str">
+        <v>Mérida, Yucatán</v>
+      </c>
+      <c r="D31" t="str">
+        <v>$ 8,212</v>
+      </c>
+      <c r="E31" t="str">
+        <v>Objective Collect past due payments to prevent accounts from rolling forward to the next bucket of delinquency. Follow all company policies and state and federal laws applicable to debt collection.We are looking for a vacancy:Customer Service RepresentativeAcademic studies:High school diploma (minimum) or Business Administration Career or RelatedWork Experience:1 year of customer service experience attending clients via phone (calls).Knowledge and skills:Customer service, administrative operations, collect past due payments, account managment, debt collectión, prevent repossesions and losses through negotiation and utilization of available programs, office (word, excel, powerpoint), advanced english (speaking proficiency).Schedule availability:Flexible schedule.</v>
+      </c>
+      <c r="F31" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-customer-service-especialist-bepensa-base-salary-and-additional-benefits-en-merida-93A07AD8D477E0C161373E686DCF3405#lc=ListOffers-Score3-9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Work From Home Node Backend Tech Lead / Ref. 0111</v>
+      </c>
+      <c r="B32" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Juárez, Chihuahua</v>
+      </c>
+      <c r="D32" t="str">
+        <v>$ 3,700</v>
+      </c>
+      <c r="E32" t="str">
+        <v>At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.Node Backend Tech Lead at BairesDevIf you are a natural leader with mentoring experience, this job is for you! As a Node Backend Tech Lead in our Development Team, your mission will be technically overseeing a team of experienced front and back developers. You will work in a fast-paced global team in charge of pushing innovation to the next level. Innovation is at the heart of the BairesDev strategy.What You Will Do:- Works with the team to determine the needs of the global technical architecture.- Identifies the integration points for third-party and existing systems.- Validates that all technical choices will integrate with the final solution and adhere to the technical contracts defined for integration.Heres what we are looking for:- 7+ years of experience in Node development.- Advance agile methodologies management.- Advanced Design Patterns knowledge.- Advanced IT infrastructure knowledge.- Experience with Security.- Experience developing/integrating with large-scale applications.- Fully specialized in Backend, Frontend development areas.- Strong experience in coding reviews and managing CI/CD pipelines.- Expert understanding of the benefits/weaknesses of a clients requirements.- Advanced knowledge of the tradeoffs of choosing a certain technology.- Strong experience participating in meetings with clients, users, and stakeholders.- Experience leading teams, allocating tasks, identifying risks, decision making, estimating tasks, managing conflicts, and planning.- Advanced English level.How we do make your work (and your life) easier:- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+      <c r="F32" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-work-from-home-node-backend-tech-lead-ref-0111-en-juarez-844F07CCF54326E461373E686DCF3405#lc=ListOffers-Score3-10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Work From Home React Native Tech Lead / Ref. 0198</v>
+      </c>
+      <c r="B33" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Puebla, Puebla</v>
+      </c>
+      <c r="D33" t="str">
+        <v>$ 3,700</v>
+      </c>
+      <c r="E33" t="str">
+        <v>At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.React Native Tech Lead at BairesDevIf you are a natural leader with mentoring experience, this job is for you! As a React Native Tech Leader in our Development Team, your mission will be technically overseeing a team of experienced front and back developers. You will work in a fast-paced global team in charge of pushing the innovation to the next level. Innovation is at the heart of the BairesDev strategy.What You Will Do:- Lead a front end team of approximately 5 developers located locally and remotely.- Oversee front end coding/logic.- Integrate UI /UX and animation features.- Collaborate with engineers, designer, and product managers in an agile environment.- Plan projects (understand requirements, effort, time, budget, etc.).Heres what we are looking for:- 7+ years of experience in Front End development with strong skills in Javascript, CSS3 and HTML5.- 2+ years of experience developing Web applications using ReactJS, Flux, Redux, Relay, etc.- 2+ years of experience working with RoR.- Familiar with the concepts of basic programming, JavaScript and data structures, types of variables and idiosyncrasies.- Advanced English level.How we do make your work (and your life) easier:- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+      <c r="F33" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-work-from-home-react-native-tech-lead-ref-0198-en-puebla-DACAA09679A9B2B961373E686DCF3405#lc=ListOffers-Score3-11</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Customer Support Representative - Salesforce Focused</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Pearl Talent</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Argentina</v>
+      </c>
+      <c r="D34" t="str">
+        <v>$5</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Work Arrangement: Fully remote, Overlap with EST working hours, US HolidaysJob Type: Full-timeWork Schedule: Monday to Friday, 9:00 AM – 5:00 PM EST (with flexibility based on client/user needs)Location: Remote, open only to candidates based in ArgentinaAbout Pearl Talent:Pearl works with the top 1% of candidates from around the world and connects them with the best startups in the US and EU. Our clients have raised over $5B in aggregate and are backed by companies like OpenAI, a16z, and Founders Fund. They’re looking for the sharpest, hungriest candidates who they can consistently promote and work with over many years. Candidates we’ve hired have been flown out to the US and EU to work with their clients, and even promoted to roles that match folks onshore in the US.Why Work with Us?We mean what we say that we’re building a different recruiting company here. We only work with exceptional founders from the US and EU who care about the long-term success of their team members. We also provide you with attainable 3, 6, 9, 12 month, and beyond retention bonuses in addition to community oriented opportunities like an annual retreat.About the CompanyThe company is a fast-growing SaaS company revolutionizing the insurance industry with the most advanced all-in-one CRM and Agency Management System, built entirely on Salesforce. The platform enables modern insurance agencies to accelerate growth, improve productivity, and streamline operations on a single, highly configurable solution. They promote a forward-thinking, agile work environment that values innovation, continuous improvement, and exceptional customer experiences. With a collaborative and remote-friendly culture, the company is deeply committed to transparency, initiative, and long-term client success.Company ValuesClient Obsession: Our success begins with theirs. The CSR is the first line of defense in ensuring a smooth, efficient, and positive client experience.SaaS with Soul: We believe in tech that’s human-centered. The CSR must embody empathy, patience, and clarity in every customer interaction.Operational Excellence: Accuracy, accountability, and problem resolution are key to building trust.Team Over Ego: No silos. Our CSRs collaborate tightly with Product, Sales, and Engineering to close the loop.The ideal candidate will align with these values by owning every support ticket with urgency and care, proactively suggesting improvements, and treating each customer interaction as a chance to build lasting loyalty.Main Functions (Day-to-Day Responsibilities)The Customer Support Representative will serve as a key player in the company's client success journey, providing responsive and knowledgeable support across its CRM + AMS platform.Triage, troubleshoot, and resolve client issues via Salesforce, email, and chat.Provide Salesforce-admin-level troubleshooting support—escalating complex issues when appropriate.Educate clients on best practices for using the company's platform, including workflows, integrations, and automation.Serve as a product expert capable of translating technical concepts into clear, user-friendly instructions.Document issues clearly and update internal knowledge bases for continuous team learning.Identify support trends and collaborate with Product and Engineering to resolve root causes.Maintain an internal loop with Customer Success Managers and Account Executives to ensure high-touch client support.Immediate Tasks (Week 1 Ownership):Complete onboarding and immersion into the company's Salesforce-based AMS platform.Shadow existing CSRs to understand tone, expectations, and typical support volumes.Deep-dive into internal knowledge base, current support SLAs, and past ticket history.Begin handling low-complexity tickets independently by end of week one.Set up personal Zendesk dashboard and begin logging response metrics.Join internal syncs with CSM and Product teams to understand cross-functional dependencies.RequirementsMust-Haves:Salesforce Admin Certification (active and up to date)2+ years of experience in customer support or technical support for SaaS or software productsStrong problem-solving skills, especially in environments built on Salesforce or similar CRMsExcellent verbal and written English communicationAbility to translate complex system behavior into client-friendly languageStrong documentation habits and proactive communication with internal teamsNice-to-Haves:Experience in the insurance, fintech, or agency management software spaceFamiliarity with Zendesk, HubSpot, and JiraExperience working in a high-growth SaaS environmentBenefitsCompensation Package:Competitive Salary: To be discussed during the interviewRemote Work: Fully remote—work from anywhereGenerous PTO: Ample paid time off to rest and rechargeDirect Mentorship: Grow through guidance from international industry expertsLearning &amp; Development: Ongoing access to resources for professional growthGlobal Networking: Work and connect with professionals around the worldWork-Life Balance: Flexible hours that support a healthy work-life balanceOur Recruitment Process:ApplicationScreeningTop-grading InterviewSkills AssessmentClient InterviewJob OfferClient OnboardingReady to Join Us?If this role aligns with your skills and career goals, we’d love to hear from you. Apply now to take the next step in your journey with Pearl!</v>
+      </c>
+      <c r="F34" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-customer-support-representative-salesforce-focused-en-argentina-891CB23A622A015D61373E686DCF3405#lc=ListOffers-Score3-12</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Night Shift Technical Support Agent (Bilingual) - MXN 19K Salary</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Importante empresa del sector</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Iztacalco, Ciudad de México DF</v>
+      </c>
+      <c r="D35" t="str">
+        <v>$ 16,000.00</v>
+      </c>
+      <c r="E35" t="str">
+        <v>Night Owl Opportunity: Tier 1 Technical Support Agent (Overnight Shift)Are you ready to become part of a thriving corporate environment with an international scope? GlobalTech Corporation, a leader in providing technological solutions for the U.S. tax sector, is looking for dedicated professionals for our Tier 1 Technical Support team. This role focuses on delivering exceptional service and resolving technical incidents for our corporate clients.Your Role and Responsibilities:• Provide first-level technical support and resolve incidents remotely.• Accurately log all case details in our ticketing system.• Ensure timely follow-up on service requests and escalate complex problems when necessary.• Maintain a clear, professional, and solution-driven user experience for all clients.• Collaborate effectively with cross-functional technical and operational teams.Ideal Candidate Profile:• Education: High school diploma (minimum); a Bachelor's degree or technical certification is preferred.• Language: Advanced English (C1 level is essential).• Experience: Minimum of 6 months to 1 year of proven experience in technical support or customer service.• Technical Skills: Basic knowledge of ticketing platforms, remote support tools, and various digital applications.• Key Skills: Strong communication, organizational, and customer-centric abilities.• Work Schedule: Availability to work Monday to Friday, from 12:00 AM to 7:00 AM (Overnight Shift).Benefits &amp; Compensation:• Comprehensive Monthly Salary: $19,000 MXN (night bonus already included).• Direct Hire: Immediate direct hiring by GlobalTech Corporation.• Training: Full initial technical training provided to ensure your success.• Stability &amp; Growth: Enjoy job stability with clear opportunities for professional advancement.• Work Environment: A supportive and excellent work environment.• Payment: Punctual bi-weekly payments.Work Location:• Alcaldía Miguel Hidalgo, CDMX• Modality: On-site.• Availability: Immediate.Take the next step in your tech career. Apply for our Overnight Support role!</v>
+      </c>
+      <c r="F35" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-night-shift-technical-support-agent-bilingual-mxn-19k-salary-en-iztacalco-5D66C820D011250E61373E686DCF3405#lc=ListOffers-Score3-13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>JDE System Specialist</v>
+      </c>
+      <c r="B36" t="str">
+        <v>ASOCIACION DE NORMALIZACION Y CERTIFICACION SA DE CV</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Gustavo A. Madero, Ciudad de México DF</v>
+      </c>
+      <c r="D36" t="str">
+        <v>$ 65,000.00</v>
+      </c>
+      <c r="E36" t="str">
+        <v>We are looking for talent, participate in our great work team.we look for our next: : JDE System SpecialistJob Summary:The JDE System Analyst will be responsible for providing technical support and maintenance for the JD Edwards (JDE) enterprise resource planning (ERP) system in the LAM region. This role will work closely with end-users to understand their requirements, troubleshoot issues, and implement solutions to enhance the functionality and efficiency of the JDE system.Key Responsibilities:1. Provide technical support and troubleshooting for the JDE system, including resolving user issues, identifying and addressing system errors, and implementing system updates and patches.2. Collaborate with end-users to understand their business requirements and translate them into functional and technical specifications for the JDE system.3. Perform system configuration, customization, and integration tasks to meet the specific needs of the LAM region.4. Develop and maintain JDE system documentation, including user manuals, training materials, and process workflows.5. Conduct user training and provide ongoing support to ensure effective utilization of the JDE system.Qualifications and Skills:• Bachelor's degree in Computer Science, Information Technology, or a related field, It is essential to have a professional degree• 3 years of experience as a JDE System Analyst or in a similar role• Proficiency in the Spanish &amp; English language is highly valued.• Proficient in JDE system administration, configuration, and customization• Strong understanding of JDE modules, such as Financials, Supply Chain, and Manufacturing• Experience in integrating JDE with other enterprise systems (e.g., ERP, CRM, HR)• Excellent problem-solving and analytical skills to identify and resolve complex technical issues• Effective communication and interpersonal skills to collaborate with end-users and cross-functional teams• Willingness to travel within the LAM region as neededBenefits:Superior benefits: 5% savings fund, vouchers, Life insuranceIf you are interested in the vacancy, apply here and we will contact you!</v>
+      </c>
+      <c r="F36" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-jde-system-specialist-en-gustavo-a-madero-0F170C733C75B65161373E686DCF3405#lc=ListOffers-Score3-14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Desarrollador front end Senior Java Script, React - Java Script, React</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Asteci</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Miguel Hidalgo, Ciudad de México DF</v>
+      </c>
+      <c r="D37" t="str">
+        <v>$ 29,181</v>
+      </c>
+      <c r="E37" t="str">
+        <v>Somos una Consultora de TI con diversos clientes nacionales e internacionales.Buscamos un Desarrollador Frontend Senior enfocado al desarrollo moderno con sólida experiencia en Java Script, Type Script y React Js.Requisitos clave:+ 5 años de experiencia en el desarrollo del sofware.Java Script, TypeScript.Frameworks : ReactJS, NestJS, NextJSTesting: Jest, testing en generalUso de patrones de Diseño.Seguridad: Fortify, Checkmarx, BlackduckHerramientas CI: Jenkins, Git, GitFlow, Bitbucket, JIRA, Confluence, Sonar,Checkmarx, fortifyDynatrace, SplunkBlack duckMetolologías Agil, Scrum.Conocimiento de Desarrollo e Integración con REST APIs.Inglés 80%Actividades:Diseño, desarrollo, integración, pruebas e implementación eficaces de requisitos empresariales complejos.Aplicación de conocimientos tecnológicos al diseño de modelos y/o sistemas, formulación de diseños técnicos detallados, investigación y recomendación de soluciones técnicas, desarrollo y entrega de aplicaciones mediante metodologías de desarrollo ágil.Capacidad para trabajar al más alto nivel técnico en el desarrollo de sistemas, manteniendo un sólido conocimiento de las estrategias y aplicaciones empresariales de gestión patrimonial.Liderazgo técnico, coordinación entre laboratorios, soporte a la producción y soporte a la implementación de versiones.Ofrecemos:Salario competitivo.Prestaciones de Ley.Seguro de gastos médicos menores y mayores.Esquema hibrido.Apoyo económico por teletrabajo.INTERESADOS FAVOR DE POSTULARSE ATRAVES DE ESTE MEDIO PARA AGENDAR UNA ENTREVISTA DE TRABAJO.</v>
+      </c>
+      <c r="F37" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-desarrollador-front-end-senior-java-script-react-java-script-react-en-miguel-hidalgo-E5060CC1D092E88461373E686DCF3405#lc=ListOffers-Score3-15</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Work From Home Python Tech Lead / Ref. 0071</v>
+      </c>
+      <c r="B38" t="str">
+        <v>BairesDev LLC</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Mérida, Yucatán</v>
+      </c>
+      <c r="D38" t="str">
+        <v>$ 3,700</v>
+      </c>
+      <c r="E38" t="str">
+        <v>At BairesDev®, weve been leading the way in technology projects for over 15 years. We deliver cutting-edge solutions to giants like Google and the most innovative startups in Silicon Valley.Our diverse 4,000+ team, composed of the worlds Top 1% of tech talent, works remotely on roles that drive significant impact worldwide.When you apply for this position, youre taking the first step in a process that goes beyond the ordinary. We aim to align your passions and skills with our vacancies, setting you on a path to exceptional career development and success.Python Tech Lead at BairesDevIf you are a natural leader with mentoring experience, this job is for you! As a Python Tech Leader in our Development Team, your mission will be technically overseeing a team of experienced front and back developers. You will work in a fast-paced global team in charge of pushing the innovation to the next level. Innovation is at the heart of the BairesDev strategy.What You Will Do:- Work closely alongside their Engineering and Business Stakeholders to support the delivery of the project.- Be able to manage your time effectively to focus on coding as well as supporting junior members.- Integrate with the DevOps team to maintain tasks.- Make architectural decisions keeping the future of a growing business in mind.Heres what we are looking for:- Advance agile methodologies management.- Advanced Design Patterns knowledge.- Advanced IT infrastructure knowledge.- Experience with Security.- Experience developing/integrating with large-scale applications.- Fully specialized in Backend, Frontend development areas.- Strong experience in coding reviews and managing CI/CD pipelines.- Expert understanding of the benefits/weaknesses of clients requirements.- Advanced knowledge of the tradeoffs of choosing a certain technology.- Strong experience participating in meetings with clients, users, and stakeholders.- Experience leading teams, allocating tasks, identifying risks, decision making, estimating tasks, managing conflicts, planning.How we do make your work (and your life) easier:- 100% remote work (from anywhere).- Excellent compensation in USD or your local currency if preferred- Hardware and software setup for you to work from home.- Flexible hours: create your own schedule.- Paid parental leaves, vacations, and national holidays.- Innovative and multicultural work environment: collaborate and learn from the global Top 1% of talent.- Supportive environment with mentorship, promotions, skill development, and diverse growth opportunities.Apply now and become part of a global team where your unique talents can truly thrive!</v>
+      </c>
+      <c r="F38" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-work-from-home-python-tech-lead-ref-0071-en-merida-C4B407DFC6D9997F61373E686DCF3405#lc=ListOffers-Score3-16</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Night Shift Technical Support Agent (Bilingual) - MXN 19K Salary</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Importante empresa del sector</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Cuauhtémoc, Ciudad de México DF</v>
+      </c>
+      <c r="D39" t="str">
+        <v>$ 16,000.00</v>
+      </c>
+      <c r="E39" t="str">
+        <v>Night Owl Opportunity: Tier 1 Technical Support Agent (Overnight Shift)Are you ready to become part of a thriving corporate environment with an international scope? GlobalTech Corporation, a leader in providing technological solutions for the U.S. tax sector, is looking for dedicated professionals for our Tier 1 Technical Support team. This role focuses on delivering exceptional service and resolving technical incidents for our corporate clients.Your Role and Responsibilities:• Provide first-level technical support and resolve incidents remotely.• Accurately log all case details in our ticketing system.• Ensure timely follow-up on service requests and escalate complex problems when necessary.• Maintain a clear, professional, and solution-driven user experience for all clients.• Collaborate effectively with cross-functional technical and operational teams.Ideal Candidate Profile:• Education: High school diploma (minimum); a Bachelor's degree or technical certification is preferred.• Language: Advanced English (C1 level is essential).• Experience: Minimum of 6 months to 1 year of proven experience in technical support or customer service.• Technical Skills: Basic knowledge of ticketing platforms, remote support tools, and various digital applications.• Key Skills: Strong communication, organizational, and customer-centric abilities.• Work Schedule: Availability to work Monday to Friday, from 12:00 AM to 7:00 AM (Overnight Shift).Benefits &amp; Compensation:• Comprehensive Monthly Salary: $19,000 MXN (night bonus already included).• Direct Hire: Immediate direct hiring by GlobalTech Corporation.• Training: Full initial technical training provided to ensure your success.• Stability &amp; Growth: Enjoy job stability with clear opportunities for professional advancement.• Work Environment: A supportive and excellent work environment.• Payment: Punctual bi-weekly payments.Work Location:• Alcaldía Miguel Hidalgo, CDMX• Modality: On-site.• Availability: Immediate.Take the next step in your tech career. Apply for our Overnight Support role!</v>
+      </c>
+      <c r="F39" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-night-shift-technical-support-agent-bilingual-mxn-19k-salary-en-cuauhtemoc-64ACBA516D7DE51361373E686DCF3405#lc=ListOffers-Score3-17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Desarrollador Senior - Java Script + ReactJs</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Asteci</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Miguel Hidalgo, Ciudad de México DF</v>
+      </c>
+      <c r="D40" t="str">
+        <v>$ 35,000.00</v>
+      </c>
+      <c r="E40" t="str">
+        <v>Somos una Consultora de TI con diversos clientes nacionales e internacionales.Estamos en búsqueda de un Desarrollador Senior enfocado al desarrollo moderno con sólida experiencia en Java Script, Type Script y React JsOFRECEMOS:Salario competitivo.Prestaciones de Ley.Seguro de gastos médicos menores y mayores.Esquema hibrido.Apoyo económico por teletrabajo.ACTIVIDADES:Diseño, desarrollo, integración, pruebas e implementación eficaces de requisitos empresariales complejos.Aplicación de conocimientos tecnológicos al diseño de modelos y/o sistemas, formulación de diseños técnicos detallados, investigación y recomendación de soluciones técnicas, desarrollo y entrega de aplicaciones mediante metodologías de desarrollo ágil.Capacidad para trabajar al más alto nivel técnico en el desarrollo de sistemas, manteniendo un sólido conocimiento de las estrategias y aplicaciones empresariales de gestión patrimonial.Liderazgo técnico, coordinación entre laboratorios, soporte a la producción y soporte a la implementación de versiones.REQUISITOS:+ 5 años de experiencia en el desarrollo del sofware.Java Script, TypeScript.Frameworks : ReactJS, NestJS, NextJSTesting: Jest, testing en generalUso de patrones de Diseño.Seguridad: Fortify, Checkmarx, BlackduckHerramientas CI: Jenkins, Git, GitFlow, Bitbucket, JIRA, Confluence, Sonar,Checkmarx, fortifyDynatrace, SplunkBlack duckMetolologías Agil, Scrum.Conocimiento de Desarrollo e Integración con REST APIs.+ 3 años de experiencia práctica Backend para la capa front-endInglés 80%INTERESADOS FAVOR DE POSTULARSE A TRAVÉS DE ESTE MEDIO PARA AGENDAR UNA ENTREVISTA DE TRABAJO.</v>
+      </c>
+      <c r="F40" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-desarrollador-senior-java-script-reactjs-en-miguel-hidalgo-4A573AD4C04385F761373E686DCF3405#lc=ListOffers-Score3-18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Líder de Desarrollo Fullstack - Fullstack</v>
+      </c>
+      <c r="B41" t="str">
+        <v>AVASA</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Mérida, Yucatán</v>
+      </c>
+      <c r="D41" t="str">
+        <v>$ 11,239</v>
+      </c>
+      <c r="E41" t="str">
+        <v>¿Quiénes somos?• Una compañía líder en el mercado, con presencia a nivel nacional. Hemos crecido de forma sostenida en los últimos años diversificándonos en distintos giros comercial dentro del sector automovilístico, brindando servicios y productos competitivos.Buscamos para nuestras oficinas en Mérida, un Líder técnico Desarrollador FullStack, para administrar nuestro equipo de desarrollo.¿Qué buscamos?• 4 a 5 años de experiencia como: Líder técnico, líder de desarrollo o Coordinador de Desarrollo.Un Líder de Desarrollo full-stack con amplios conocimientos y experiencia en el desarrollo web, capaz de trabajar tanto en el front-end como en el back-end, con sólidas habilidades de liderazgo, gestión de proyectos y comunicación para dirigir un equipo de desarrollo y garantizar la entrega exitosa de proyectos.Habilidades técnicas:• Front-end: HTML, CSS, JavaScript, frameworks y librerías (React.js, Next.js)• Back-end: Lenguajes como Python, Java, Node.js, bases de datos (SQL,MySQL Server, MariaDB), APIs.• Arquitectura: Conocimiento de arquitecturas web, patrones de diseño, testing y despliegue.• Herramientas: Control de versiones (Git, GitLab), sistemas y herramientas de gestión de proyectos como Jira, herramientas de automatización.Habilidades de liderazgo y gestión:• Gestión de equipos: Planificación, organización, motivación y evaluación del desempeño.• Gestión de proyectos: Definición de objetivos, planificación, seguimiento, resolución de problemas.• Comunicación: Capacidad para comunicarse eficazmente con el equipo, clientes y partes interesadas.• Resolución de problemas: Capacidad para identificar y solucionar problemas técnicos y de gestión.Funciones:• Definir la arquitectura y diseño técnico de la aplicación.• Dirigir y coordinar al equipo de desarrollo.• Establecer estándares de calidad y buenas prácticas de desarrollo.• Realizar revisión de código y garantizar la calidad del software.• Colaborar con otros equipos y partes interesadas.• Mantenerse actualizado sobre las últimas tecnologías y tendencias.• Contribuir al desarrollo técnico del equipo.• Asegurar la entrega exitosa de los proyectos.¿Por qué nosotros?Porque somos una empresa buscando la mejora constante e innovación.• Oferta: SB (directo, nominal, prestaciones de ley y beneficios internos).• Modalidad: 100% Presencial.• Horario: lunes a viernes 09:00 a 6:00 pm.• Ubicación: Zona norte, Mérida, Yucatán.</v>
+      </c>
+      <c r="F41" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-lider-de-desarrollo-fullstack-fullstack-en-merida-FD4E97ADC1B2828661373E686DCF3405#lc=ListOffers-Score3-19</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Engineer - Manufacturing and CNC Process Optimization</v>
+      </c>
+      <c r="B42" t="str">
+        <v>IMS Gear, S.A. de C.V.</v>
+      </c>
+      <c r="C42" t="str">
+        <v>El Marqués, Querétaro</v>
+      </c>
+      <c r="D42" t="str">
+        <v>No especificado</v>
+      </c>
+      <c r="E42" t="str">
+        <v>Location: Gainesville, GAJob Type: Full-Time, On-SiteSchedule: Day Shift | On-call when requiredDepartment: Manufacturing EngineeringReports To: Engineering ManagerPosition OverviewIMS Gear is seeking a highly skilled and motivated Engineer to join our manufacturing operations in Gainesville, Georgia. This position is central to our mission of delivering precision gear components by optimizing and improving our manufacturing processes. Youll work hands-on with equipment, CNC programming, and process innovation to enhance efficiency, reduce waste, and uphold our high quality and safety standards.Key ResponsibilitiesConduct process and machine capability studies; drive improvements.Develop and refine CNC processes, troubleshoot tooling issues, and perform G-code programming.Support APQP, FMEA, and Control Plan creation and reviews.Commission and accept complex equipment and machines.Select suppliers, evaluate technical offers, and coordinate purchases of indirect materials.Define, monitor, and adjust critical process parameters.Write and maintain detailed work instructions and training materials.Lead feasibility studies and implement custom or modified process solutions.Perform root cause analysis on alarms, quality complaints, and process failures.Collaborate cross-functionally on 8D problem-solving and continuous improvement projects.Ensure compliance with ISO14001, safety, and internal quality standards.Support robotic programming and machine control initiatives.Supervise student interns and introduce employees to new systems.Maintain automation maintenance logs and contribute to knowledge sharing (SharePoint).RequirementsEducationBachelors degree in mechanical engineering or a related field.Six Sigma Green Belt certification (preferred).ExperienceMinimum 5 years in high-volume manufacturing (preferably IATF environment).CNC Turning and CAD experience required.Familiarity with Star (Swiss) and conventional turning machines.FANUC CNC controller knowledge (required); Siemens CNC (preferred).Physical &amp; Work Environment RequirementsOccasional lifting (up to 25 lbs.) and pushing/pulling (up to 50 lbs.).Frequent standing, walking, bending, reaching, and using fine motor skills.Exposure to active manufacturing environments PPE required (safety glasses, hearing protection, safety shoes).Benefits401(k) with 4% company match no vesting periodComprehensive Health, Dental, Vision InsuranceCompany-Paid Life and Disability Insurance15 Days PTO + 10 Paid HolidaysRelocation Support (as per policy)Why IMS Gear?At IMS Gear, we believe in shaping the future of mobility through precision and innovation. We are proud to foster a collaborative and inclusive workplace where your contributions matter. Join our team and be part of something that drives the world forward.Equal Opportunity EmployerIMS Gear is an equal opportunity employer. We celebrate diversity and are committed to creating an inclusive environment for all employees regardless of race, color, religion, gender, national origin, disability, or veteran status.Apply Today!Take the next step in your engineering career with IMS Gear. We look forward to welcoming you to our team.Disclaimer: This job description is not designed to cover or contain a comprehensive listing of activities, duties or responsibilities that are required of the position. Duties, responsibilities, and activities may change, or new ones may be assigned at any time with or without notice.</v>
+      </c>
+      <c r="F42" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-engineer-manufacturing-and-cnc-process-optimization-en-el-marques-DF16EA59CBEDE60161373E686DCF3405#lc=ListOffers-Score3-0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Front Office Manager - Luxury Resort</v>
+      </c>
+      <c r="B43" t="str">
+        <v>Alliance Abroad LATAM</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Los Cabos, Baja California Sur</v>
+      </c>
+      <c r="D43" t="str">
+        <v>$ 100,000.00</v>
+      </c>
+      <c r="E43" t="str">
+        <v>¡Hola a todos! Nos complace anunciar una nueva oportunidad de empleo en nuestra red de Hoteles.Buscamos un Front Desk Manager apasionado, con experiencia y habilidades de liderazgo sólidas para ir a trabajar a USA con visado TN (nosotros te guiamos en el proceso del visado).Location: Greenough, MontanaSalary/Wage $60,000 - $65,000 USD annuallyRequired: Multiple years of Forbes Five Star experienceResponsibilitiesTrains Front Office and Guest Services personnel to Forbes 5-Star standards.Creates weekly schedule for Front Desk and monitors staff scheduling to flex based on business needs.Maintains thorough knowledge of accommodations, package plans, and Resort facilities.Check guests in and out including preparation of folios and authorizing payments.Act as Manger on Duty (MOD).Responds to guest needs and anticipates their unstated ones.Ensure daily checklists are completed in Front Desk and Guest Services.Supportive Functions and ResponsibilitiesRemains flexible with open availability in order to cover the unexpected needs of the Resort.Expert knowledge of Maestro PMS, the hotel app, and all other programs and systems.Ability to lift and carry 50 pounds.Greets guests arriving and departing from the airport.Monitors daily arrivals and ensures accommodations are prepared prior to check in.Ensures the Lexus app is filled out and complete per our Lexus partnership.Audits daily arrivals and departures to ensure accurate guest flight information.Provide feedback to the team, both positive and constructive, to ensure we are hitting our targets.Analyze guest feedback and provide strategic direction to improve overall rating.First point of contact for guest feedback and service recovery situations. Must be comfortable accepting constructive feedback and correcting issues. Responsible for finding a solution for the guest to complete guest follow up.Positive attitude always, especially under pressure.Required skillsExcellent problem-solving and multitasking skills.Leadership skills along with the ability to motivate a team into high performance.Ability to work flexible hours and open availability.Strong sense of responsibility and a professional presentation.BS degree in Hospitality Management, Tourism, Business Administration or relevant field preferred.Valid State Drivers License (mexican).QualificationsRelevant work experience as a Guest Relations Manager, Hotel Manager, or similar role in a luxury environment.Understanding of all hotel management best practices and relevant laws.Hands-on experience with Hotel Management software (PMS).Proficiency in English; knowledge of other languages is a plus.Customer service drive with outstanding communication and active listening skillsHousing type-We offer housing for 3 months to allow them to settle in and establish their own place to live. Single occupancy room in The Junction apartment building. Bathroom in unit. Shared facilities (kitchens, laundry), free wifi.-$350 per month ($175 deducted from payroll every 2 weeks). $300 deposit ($100 deducted from payroll for the first 3 paychecks)Additional commentsWe require that they have a drivers license for at least 2 years and a clean motor vehicle report so that they can drive our vehicles while theyre in the process of getting their MT license.For all TN candidates this is the expectation: They will rent a car or rent via Turo (doesnt require a US drivers license) until they are able to purchase their own vehicle.Gas station, convenience store, and bar located next to the apartment building. Ten minute drive to The Resort. Twenty minute drive to the town of Seeley Lake for groceries, restaurants, etc.</v>
+      </c>
+      <c r="F43" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-front-office-manager-luxury-resort-en-los-cabos-FB9346232B413B5761373E686DCF3405#lc=ListOffers-Score3-1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Food and Beverage Manager - Gerente de alimentos y bebidas</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Alliance Abroad LATAM</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Quintana Roo, Yucatán</v>
+      </c>
+      <c r="D44" t="str">
+        <v>$ 103,000.00</v>
+      </c>
+      <c r="E44" t="str">
+        <v>¡Hola a todos! Nos complace anunciar una nueva oportunidad de empleo en nuestra red de Hoteles.Buscamos un Gerente de Alimentos y Bebidas apasionado, con experiencia y habilidades de liderazgo sólidas parair a trabajar a USA con visado TN (nosotros te guiamos en el proceso del visado).Location: Greenough, MontanaSalary/Wage $62k AnnuallyPosition OverviewJoin the Team at Montanas Premier Luxury Ranch Resort!Nestled on a breathtaking 37,000-acre ranch, The Resort embodies the spirit of the American West. As a family-owned, award-winning destination, we inspire both guests and team members alike.We are seeking a talented Food and Beverage Manager to join our team. The role of the Food and Beverage Manager is to ensure world class service is provided for our guests in our various dining outlets. Responsibilities will encompass all facets of the resort food and beverage in the dining room but may include and not be limited to outside event venues, catered offerings, and special events. The dining manager must manage and maintain The Resort standards of service as well as seeking opportunities to enhance guest experience, while being fiscally responsible with our resources.ResponsibilitiesResponsible for all facets of our various dining outlets, including but not limited to; labor management, menu curation/training, wine inventory/training, purchasing, training, reporting and daily serviceResponsible for all staff scheduling according to volume of business; understand how to be flexible when necessary to meet labor expectations; ability to adjust daily operations to be in line with the budgetResponsible for all employee relations to include accountability and documentationAid in recruiting, hiring, and training and growing exceptional Food &amp; Beverage team members; Plan and provide training and guidance daily, weekly, and monthlyKnow, understand and train others on operating systems such as the POS system, Open Table and others, as requiredKnowledgeable on all menu items including preparation, any allergens, and alternative preparationsWork to continually improve guest dining satisfaction while maintaining the operating budgetImprove service by communicating and assisting to understand and guest needs, providing guidance, feedback, and individual coaching when neededSubmit future goals, operational improvements, and employee management to Director of RestaurantsProvide day-to-day guidance and oversight of Food &amp; Beverage team members; actively promote, train, coach, and recognize performanceIdentify, address and document individual team member performance problems according to standard operating procedureResponsible for all inventories of china, glassware, and silverwareManage operations and ensures compliance with all Food &amp; Beverage policies, sanitation, food standards and proceduresMaintain flexible hours to accommodate guest and special event needs, due to the cyclical nature of the hospitality industry; Position requires full availability including evenings, weekends, holidays or as neededMaintain complete knowledge of and comply with all departmental policies/service procedureRequired skills3+ years experience in Food &amp; Beverage Management in a resort or fine dining settingHousing type-We offer housing for 3 months to allow them to settle in and establish their own place to live. Single occupancy room in The Junction apartment building. Bathroom in unit. Shared facilities (kitchens, laundry), free wifi.-$350 per month ($175 deducted from payroll every 2 weeks). $300 deposit ($100 deducted from payroll for the first 3 paychecks)Additional commentsWe require that they have a drivers license for at least 2 years and a clean motor vehicle report so that they can drive our vehicles while theyre in the process of getting their MT license.For all TN candidates this is the expectation: They will rent a car or rent via Turo (doesnt require a US drivers license) until they are able to purchase their own vehicle.Gas station, convenience store, and bar located next to the apartment building. Ten minute drive to The Resort. Twenty minute drive to the town of Seeley Lake for groceries, restaurants, etc.What We Offer:Medical, Dental, Vision Insurance401K with Employer MatchPaid Time Off 9 Floating Holidays and 15 Personal DaysCareer Development and Advancement OpportunitiesLife Insurance, Long Term, and Short-Term DisabilityEmployee Assistance Program (5 free counseling sessions)Referral Bonus ProgramEmployee Discounts on Merchandise (30% on select items in our retail store)Employee Lunch ProvidedSend your CV through this medium and take the first step towards a new and exciting stage in your professional career.</v>
+      </c>
+      <c r="F44" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-food-and-beverage-manager-gerente-de-alimentos-y-bebidas-en-quintana-roo-ADEB52CF3A13E1EB61373E686DCF3405#lc=ListOffers-Score3-2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Front End Developer Js - Senior</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Asteci</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Miguel Hidalgo, Ciudad de México DF</v>
+      </c>
+      <c r="D45" t="str">
+        <v>$ 35,000.00</v>
+      </c>
+      <c r="E45" t="str">
+        <v>Somos una Consultora de TI con diversos clientes nacionales e internacionales.Buscamos un Front End Senior enfocado al desarrollo moderno con sólida experiencia en Java Script, Type Script y React JsRequisitos clave:+ 5 años de experiencia en el desarrollo del sofware.Java Script, TypeScript.Frameworks : ReactJS, NestJS, NextJSTesting: Jest, testing en generalUso de patrones de Diseño.Seguridad: Fortify, Checkmarx, BlackduckHerramientas CI: Jenkins, Git, GitFlow, Bitbucket, JIRA, Confluence, Sonar,Checkmarx, fortifyDynatrace, SplunkBlack duckMetolologías Agil, Scrum.Conocimiento de Desarrollo e Integración con REST APIs.+ 3 años de experiencia práctica Backend para la capa front-endInglés 80%Actividades:Diseño, desarrollo, integración, pruebas e implementación eficaces de requisitos empresariales complejos.Aplicación de conocimientos tecnológicos al diseño de modelos y/o sistemas, formulación de diseños técnicos detallados, investigación y recomendación de soluciones técnicas, desarrollo y entrega de aplicaciones mediante metodologías de desarrollo ágil.Capacidad para trabajar al más alto nivel técnico en el desarrollo de sistemas, manteniendo un sólido conocimiento de las estrategias y aplicaciones empresariales de gestión patrimonial.Liderazgo técnico, coordinación entre laboratorios, soporte a la producción y soporte a la implementación de versiones.Ofrecemos:Salario competitivo.Prestaciones de Ley.Seguro de gastos médicos menores y mayores.Esquema hibrido.Apoyo económico por teletrabajo.INTERESADOS FAVOR DE POSTULARSE ATRAVES DE ESTE MEDIO PARA AGENDAR UNA ENTREVISTA DE TRABAJO.</v>
+      </c>
+      <c r="F45" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-front-end-developer-js-senior-en-miguel-hidalgo-74D00C28B76CFF9161373E686DCF3405#lc=ListOffers-Score3-3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>Upper or Lower Elementary English CoTeacher - Hiring for August 2025</v>
+      </c>
+      <c r="B46" t="str">
+        <v>Escuela John F Kennedy</v>
+      </c>
+      <c r="C46" t="str">
+        <v>Querétaro, Querétaro</v>
+      </c>
+      <c r="D46" t="str">
+        <v>No especificado</v>
+      </c>
+      <c r="E46" t="str">
+        <v>JOB OPENING!With an over 60-year tradition educating the future leaders of Mexico, John F. Kennedy - The American School of Querétaro is an innovative bilingual K-12 school in central México accredited by the International Baccalaureate Organization (IB), AdvancED (United States), and the Secretaría de Educación Pública (SEP) that serves over 1,400 students from over 28 countries.If you are for an engaging, creative and innovative ENGLISH CO-TEACHER FOR UPPER OR LOWER GRADES interested in an opportunity regarding an innovative environment, following the highest education standards, employing emerging technologies in a multicultural atmosphere share with us your information!About the job…-We are looking for an experienced Elementary School Educator willing to co-teach with the head teacher connecting with students from upper grades offering creative, dynamic and motivating classes using “out-of-the-box” learning strategies.Requirements…- Bachelor’s Degree in Education, Psychology, Pedagogy or related to education, (Title and professional license needed)- Full command of English is required.- Experience working with upper or lower elementary schoolers in English, math, sciences, social studies, etc.- Highly PassionateIf you look for your next professional challenge, please send us your resume as soon as possible, this is an immediate hiring.</v>
+      </c>
+      <c r="F46" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-upper-or-lower-elementary-english-coteacher-hiring-for-august-2025-en-queretaro-10919CC043D3788661373E686DCF3405#lc=ListOffers-Score3-4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>Desarrollador Frontend - React, Java Script</v>
+      </c>
+      <c r="B47" t="str">
+        <v>Asteci</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Miguel Hidalgo, Ciudad de México DF</v>
+      </c>
+      <c r="D47" t="str">
+        <v>$ 29,181</v>
+      </c>
+      <c r="E47" t="str">
+        <v>Consultora de TI con diversos clientes a nivel nacional e internacional solicita:Desarrollador Frontend Senior enfocado al desarrollo moderno con sólida experiencia en React JS, Java Script, Type Script.Requisitos:Lenguajes: JavaScript, TypeScriptFrameworks: ReactJS, NestJS, NextJSJest, testing en general.Uso de patrones de diseño.Seguridad: Fortify, Checkmarx, BlackduckHerramientas CI: Jenkins, Git, GitFlow, Bitbucket, JIRA, Confluence, SonarObservabilidad: Dynatrace, SplunkMetolologías Agil, Scrum.Conocimiento de Desarrollo e Integración con REST APIs.Inglés 80%.Actividades:Diseño, desarrollo, integración, pruebas e implementación eficaces de requisitos empresariales complejos.Aplicación de conocimientos tecnológicos al diseño de modelos y/o sistemas, formulación de diseños técnicos detallados, investigación y recomendación de soluciones técnicas, desarrollo y entrega de aplicaciones mediante metodologías de desarrollo ágil.Capacidad para trabajar al más alto nivel técnico en el desarrollo de sistemas, manteniendo un sólido conocimiento de las estrategias y aplicaciones empresariales de gestión patrimonial.Liderazgo técnico, coordinación entre laboratorios, soporte a la producción y soporte a la implementación de versiones.Ofrecemos:Salario competitivo.Prestaciones de Ley.Seguro de gastos médicos menores y mayores.Esquema hibrido.Apoyo económico por teletrabajo.INTERESADOS FAVOR DE POSTULARSE ATRAVES DE ESTE MEDIO PARA AGENDAR UNA ENTREVISTA DE TRABAJO.</v>
+      </c>
+      <c r="F47" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-desarrollador-frontend-react-java-script-en-miguel-hidalgo-CAC9568689E2246761373E686DCF3405#lc=ListOffers-Score3-5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>Frontend Developer - React</v>
+      </c>
+      <c r="B48" t="str">
+        <v>Asteci</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Miguel Hidalgo, Ciudad de México DF</v>
+      </c>
+      <c r="D48" t="str">
+        <v>$ 29,181</v>
+      </c>
+      <c r="E48" t="str">
+        <v>Consultora de TI con diversos clientes a nivel nacional e internacional solicita:Front end Web Developer enfocado al desarrollo moderno con sólida experiencia en React JS, Java Script, Type Script.Requisitos:Lenguajes: JavaScript, TypeScriptFrameworks: ReactJS, NestJS, NextJSJest, testing en general.Uso de patrones de diseño.Seguridad: Fortify, Checkmarx, BlackduckHerramientas CI: Jenkins, Git, GitFlow, Bitbucket, JIRA, Confluence, SonarObservabilidad: Dynatrace, SplunkMetolologías Agil, Scrum.Conocimiento de Desarrollo e Integración con REST APIs.Inglés 80%.Actividades:Diseño, desarrollo, integración, pruebas e implementación eficaces de requisitos empresariales complejos.Aplicación de conocimientos tecnológicos al diseño de modelos y/o sistemas, formulación de diseños técnicos detallados, investigación y recomendación de soluciones técnicas, desarrollo y entrega de aplicaciones mediante metodologías de desarrollo ágil.Capacidad para trabajar al más alto nivel técnico en el desarrollo de sistemas, manteniendo un sólido conocimiento de las estrategias y aplicaciones empresariales de gestión patrimonial.Liderazgo técnico, coordinación entre laboratorios, soporte a la producción y soporte a la implementación de versiones.Ofrecemos:Salario competitivo.Prestaciones de Ley.Seguro de gastos médicos menores y mayores.Esquema hibrido.Apoyo económico por teletrabajo.INTERESADOS FAVOR DE POSTULARSE ATRAVES DE ESTE MEDIO PARA AGENDAR UNA ENTREVISTA DE TRABAJO.</v>
+      </c>
+      <c r="F48" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-frontend-developer-react-en-miguel-hidalgo-BD73961FFBEA7F7161373E686DCF3405#lc=ListOffers-Score3-6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Digital Marketing Specialist</v>
+      </c>
+      <c r="B49" t="str">
+        <v>ALTA INFRAESTRUCTURA Y CONSTRUCCION</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Benito Juárez, Quintana Roo</v>
+      </c>
+      <c r="D49" t="str">
+        <v>No especificado</v>
+      </c>
+      <c r="E49" t="str">
+        <v>We’re Hiring a Digital Marketing Specialist! | IA RemodelingOn-site | Full-Time | Growth-Focused EnvironmentAre you a results-driven marketer with a passion for paid ads, automation, and data? Want to join a fast-growing team in the remodeling &amp; construction space where your creativity and tech skills drive real impact?At IA Remodeling, we don’t just build spaces—we build opportunity. And right now, we’re on the hunt for a Marketing Specialist who’s ready to take our lead generation engine to the next level — on-site with our energetic and collaborative team.What You’ll DoCreate, manage, and optimize advertising campaigns across Meta (Facebook &amp; Instagram) and Google Ads platforms in USA markets.Build and optimize landing pages for campaigns, focusing on conversion rates and user experience.Install and configure tracking pixels (Meta Pixel, Google Tags) to ensure accurate campaign tracking and reporting.Integrate email marketing systems (such as Mailchimp, Klaviyo, or similar) to automate customer journeys and nurture leads.Set up and manage CRM systems to organize leads, customer data, and sales pipelines (e.g., HubSpot, GoHighLevel, Salesforce).Monitor campaign performance, analyze metrics, and provide actionable insights to improve results.Collaborate with design, sales, and operations teams to align marketing initiatives with business goals.What We’re Looking ForBilingual or Advanced English.Minimum 2+ years of experience in digital marketing, with a focus on paid ads in the USA markets, landing pages, CRM, and email marketing.Proven experience managing paid ads inside Meta and Google platforms, optimizing conversion campaigns (CTA, PPC).Experience managing a budget of +10 K USD/month.Experience building high-converting landing pages (WordPress, ClickFunnels, Webflow, or similar tools).Notions of AI tools for design is a plus.Strong understanding of pixel installation, event tracking, and retargeting strategies.Experience with email marketing setup, automation, and performance tracking.Hands-on experience setting up and managing CRMs and marketing automation tools.Analytical mindset with strong attention to detail.Ability to work in a fast-paced environment and manage multiple projects simultaneouslyThink you’re a great fit? Apply now and let’s build something amazing—together, in person.</v>
+      </c>
+      <c r="F49" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-digital-marketing-specialist-en-benito-juarez-54BE2B3D1FB6315F61373E686DCF3405#lc=ListOffers-Score3-7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Mid Level or Senior Full Stack Developer .NET C# Angular Java</v>
+      </c>
+      <c r="B50" t="str">
+        <v>LOGOS Virtual Assistants LLC</v>
+      </c>
+      <c r="C50" t="str">
+        <v>Estados Unidos</v>
+      </c>
+      <c r="D50" t="str">
+        <v>$1,600</v>
+      </c>
+      <c r="E50" t="str">
+        <v>LOGOS Virtual Assistants is looking for a bilingual English, Full Stack Developer, to work on a medium-long-term project with a U.S. client.The project revolves around a large U.S. healthcare insurance provider, with multiple requirements for:- Supporting Role to the Design/Architecture team- Troubleshooting- Fixing Bugs/Debugging- Implementing new change requests for ongoing development on the existingtech stack.- Analytical Skills---------------------------------------------Essential Tech Stack Skills:The position will lean towards:- 70% Java competency (More work to be done on the Java side)- 30% .NET/C# competency-------------------------------------------Ideal years of experience with tech stack:- Java = [3-5+ Years]- .NET/C# = [3-4+ Years][Ideally in some web development part of .NET (MVC, Razor, Asp.net, etc)- Angular = [3-4 + Years](Multiyear experience with some version of Angular is a MUST. Great if the candidate has some Angular.Js experience, version 1.0)This is an opportunity to work in an English-based environment directly with a US-based IT Consultancy, managing large project requirements for a large healthcare provider supporting government programs such as Medicare/Medicaid.-------------------------------------------Compensation Range:- The position will pay according to experience and also English strength.- Pay is in USD- Pay range would be between $1,600-$3,100 USD, per month, as a fixedmonthly salary. [$28,800-$55,9550 MXN estimate]---------------------------------------------Next Steps:- CVs must be in English- Once your application is received, I will reach out to you directly to schedulean interview with CEO of Logos Virtual Assistants.- If selected, a 2nd short interview with the client.- If selected for final stage, a 3rd interview, which would take about 2-3 hours.- Formal offer will be made if successfully selected.We are looking to make the placement for a start date in middle to late July. We're able to move fast as long as the candidate is available. We anticipate a decision within 2-3 weeks.</v>
+      </c>
+      <c r="F50" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-mid-level-or-senior-full-stack-developer-net-c-angular-java-en-estados-unidos-5F51DB72EBC7E61E61373E686DCF3405#lc=ListOffers-Score3-8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Ingeniero Programador Sr. JAVA</v>
+      </c>
+      <c r="B51" t="str">
+        <v>Importante empresa del sector</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Benito Juárez, Ciudad de México DF</v>
+      </c>
+      <c r="D51" t="str">
+        <v>$ 25,000.00</v>
+      </c>
+      <c r="E51" t="str">
+        <v>Vacante: Ingeniero Programador Full StackUbicación: Instalaciones de CFE – Av. Cuauhtémoc, Col. del ValleHorario: Lunes a viernes de 8:00 a 18:00 hrsSomos una empresa líder en el sector de Telecomunicaciones con más de 35 años en el mercado. Estamos en búsqueda de talento comprometido y con iniciativa para integrarse a nuestro equipo como Ingeniero Programador Full Stack.?Perfil RequeridoEscolaridad:Ingeniería en Sistemas o carrera afínRequisitos:Actitud proactiva y disposición para aprenderCompromiso y puntualidadHabilidad para trabajar en equipo y liderar proyectosDisponibilidad de horarioCertificación en Java (en caso de no contar con ella, se deberá obtener con el conocimiento para poder certificarse estando dentro de la empresa)Conocimientos Técnicos:Angular, Next. js, React, Node. jsAdministración de servidores (Windows y Linux)SQL Server, PostgreSQLAnálisis, diseño e integración de bases de datosDesarrollo de interfaces front-endIdentificación de comportamientos anómalos en sistemasContenedores Docker y servicios en la nubeFunciones Principales:Desarrollo de reportes personalizados mediante consultas SQLOptimización y mantenimiento de bases de datosImplementación y modificación de APIs (Java, Angular, Node)Administración de servidores y esquemas de alta disponibilidad (HA / Always On)Diseño y desarrollo de arquitecturas de bases de datosSoporte en infraestructura sobre sistemas operativos Windows y LinuxOfrecemos:Sueldo mensual de $24,000 a $25,000 en esquema mixto (parte nominal y parte facturada)Prestaciones de leyApoyo de despensa mensual de $850Dos seguros de vidaContrato directo con la empresaOportunidad de obtener certificaciones relevantes en el área de telecomunicacionesSi cumples con el perfil y estás interesado en desarrollar tu carrera en una empresa sólida, postúlate enviando tu CV actualizado.</v>
+      </c>
+      <c r="F51" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-ingeniero-programador-sr-java-en-benito-juarez-0DEDD414D2FD95C561373E686DCF3405#lc=ListOffers-Score3-9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Diseñador/a industrial - Diseñador industrial retail</v>
+      </c>
+      <c r="B52" t="str">
+        <v>NEXT IMPULSE</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Metepec, Estado de México</v>
+      </c>
+      <c r="D52" t="str">
+        <v>$ 21,000.00</v>
+      </c>
+      <c r="E52" t="str">
+        <v>Realizar, gestionar y supervisar todos los procesos de diseño desde su concepción creativa, hasta la entrega de muestras a cliente para su aprobación. Se requiere un profesionista proactivo, con alta capacidad de programación de proyectos y toma de decisiones, con experiencia en el ramo de marketing, diseño de displays para empresa enfocada a clientes AAA.PERFIL PROFESIONAL:-Experiencia en MATERIAL POP (EXHIBIDORES)-Licenciatura terminada en Diseño Industrial-Modelado 3D (SolidWorks) y Renderizado (Keyshot) INDISPENSABLE-Paquetería de Adobe Creative (Photoshop e Illustrator) INDISPENSABLE-Paquetería Office con Excel indispensable-Realización de planos para producción y conocimiento de materiales como: alambre, lámina, madera y plástico.-Ingles básico-intermedio-Conocimiento en impresión digital y corte-Experiencia 2 años comprobablesRESPONSABILIDADES DEL PUESTO:-Generación de propuestas de diseño para clientes de exhibidores, puntos de venta y displays-Modelar, renderizar y realizar planos para producción con especificaciones.-Dar seguimiento a la producción de diseños-Realizaciòn de planos de producción y especificaciones-Revisión y ajuste de muestras-Realización de cotizaciones de los diseños, despiece y análisis de costos de materiales-Programación de producción y coordinación de equipo de impresión, corte y doblez.-Calcular tiempos de producción, volumen de materia prima y coordinación con gerencia de planta.-Propuesta de artes o modificación de archivos para impresión, con base en las necesidades de los clientes-Autorización de artes y renders; Solicitud de fabricación de muestras para aprobación de los clientes-Seguimiento de producción y supervisión de calidad-Propuestas sobre identidad corporativa y empaques*QUE RADIQUE EN TOLUCA, METEPEC O ALREDEDORES, O ESTÉ DISPUESTO A VIAJAR DIARIAMENTE O TENER CAMBIO DE RESIDENCIA A METEPEC.</v>
+      </c>
+      <c r="F52" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-disenadora-industrial-disenador-industrial-retail-en-metepec-D5FA24952BA7F2F461373E686DCF3405#lc=ListOffers-Score3-10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Camarista - $9,000.00 pesos + propinas</v>
+      </c>
+      <c r="B53" t="str">
+        <v>Next Hub Hotel</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Zapopan, Jalisco</v>
+      </c>
+      <c r="D53" t="str">
+        <v>$9,000.00</v>
+      </c>
+      <c r="E53" t="str">
+        <v>Ven y forma parte del mejor hotel en toda la Zona Centro de Zapopan -Hotel NEXT-Como parte de nuestro equipo en la posición de CAMARISTA A.P. tus responsabilidades serán:Limpieza de áreas publicas.Limpieza de habitaciones (2 días mínimo).Reporte de incidencias en habitaciones.Cuidado de los equipos y suministros del hotel.Atención a huéspedes en cuestiones de limpieza y suministros.Atención a eventualidades de la operación diaria.Inventarios mensuales.Atención a proveedor de Lavandería.Deberás contar con:Secundaria terminada,Disponibilidad para laborar fines de semana,Experiencia comprobable en el puesto o afín de al menos 2 años.Atención al detalle.Habilidad para trabajar bajo presión.Habilidad para trabajar en equipo.Facilidad de palabra.Horario laboral de 8:00am a 4:00pm (30min. de alimentos), de lunes a domingo con un descanso entre semana. El horario puede negociarse de 7:00am a 3:00pmContáctanos o visítanos hoy en Hotel Next para hacer una cita de entrevista en horario de 8am a 5pm.</v>
+      </c>
+      <c r="F53" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-camarista-900000-pesos-propinas-en-zapopan-38C5BDE8D3A9485E61373E686DCF3405#lc=ListOffers-Score3-11</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Contador - Bilingüe</v>
+      </c>
+      <c r="B54" t="str">
+        <v>Uplift Talent</v>
+      </c>
+      <c r="C54" t="str">
+        <v>Guadalajara, Jalisco</v>
+      </c>
+      <c r="D54" t="str">
+        <v>$ 30,000.00</v>
+      </c>
+      <c r="E54" t="str">
+        <v>At Uplift Talent, we are seeking a detail-oriented Accountant to join our dynamic team. This is an excellent opportunity for someone passionate about high-quality accounting standards and looking to take the next step in their career with US-based teams.JOB DESCRIPTIONThe Accountant is responsible for overseeing financial transactions, maintaining accurate financial records, preparing financial reports, and ensuring compliance with accounting principles and regulations. They will analyze financial data to provide insights and recommendations to management, as well as assist with budgeting and forecasting processes.RESPONSABILITIES:-Maintain general ledger accounts by verifying, allocating, and posting transactions.-Prepare and analyze financial statements, including balance sheets, income statements, and cash flow statements.-Reconcile financial discrepancies by collecting and analyzing account information.-Ensure compliance with accounting standards, regulations, and company policies.-Assist with budgeting and forecasting processes, providing input and analysis as needed.-Prepare and file tax returns and ensure compliance with tax regulations.-Assist with internal and external audits by providing necessary documentation and explanations.-Analyze financial data and provide insights and recommendations to management.-Monitor financial transactions and recommend improvements to processes and procedures.-Develop and maintain financial databases and spreadsheets.REQUIREMENTS:-Bachelor's degree in Accounting, Finance, related field or equivalent experience.-3+ years experience as an accountant or similar role.-US accounting or finance experience-Excellent knowledge of accounting regulations and procedures, including the -Generally Accepted Accounting Principles (US-GAAP).-Proficiency in accounting software and MS Office, particularly Excel.-Excellent analytical skills and attention to detail.-Strong communication and interpersonal skills.-Ability to prioritize and manage multiple tasks efficiently.-Experience with budgeting, forecasting, and financial analysis.-Familiarity with tax laws and regulations (US based)Salary Range: $30,000 - $40,000 MXN/monthReady to advance your accounting career in a collaborative and growth-focused environment? Apply now and be part of Uplift Talent’s success story!!</v>
+      </c>
+      <c r="F54" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-contador-bilingue-en-guadalajara-448AEB75A2F7079B61373E686DCF3405#lc=ListOffers-Score3-12</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Data Engineer</v>
+      </c>
+      <c r="B55" t="str">
+        <v>Jato Dynamics</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Cuajimalpa de Morelos, Ciudad de México DF</v>
+      </c>
+      <c r="D55" t="str">
+        <v>No especificado</v>
+      </c>
+      <c r="E55" t="str">
+        <v>About us:JATO Dynamics is a global company and the leading provider of automotive market intelligence. With an insight into over 50 overseas markets, we deliver the world's most complete, accurate and up-to-date automotive data and insights, creating significant competitive advantage to our customers.Role Overview:Do you want to be part of building out next generation SaaS products that power the automotive industry?JATO is currently looking to hire a Data Engineer to join our agile teams. As a Data Engineer, you will work in a product delivery team using your data analysis, ETL and cloud technology skills to discover, model, provision and store data at scale in the cloud.Key Responsibilities:Ingest, warehouse, and store data at scale in the Azure cloud platformWork closely with colleagues in Operations, Architecture, Delivery, Product, and Software Engineering to collaboratively release platform incrementsContribute toward solution level architecture and designOwn your release from development to production following DevOps methodContribute towards ADF and Synapse pipeline design improvement and best practices and following design principlesUnderstand data issues and able to analyse and work with Architects in addressing design challengesAble to migrate data from legacy databases and storage to Azure cloud-based lake and warehouseKey Requirements:Minimum 3+ years’ experience designing and developing complex ETL/ELT pipelines in the cloud (Azure Data Factory or Azure Synapse)Experience of preparing data maps based on high level requirements and taking those to a solution level detailsFirm understanding of data warehousing concepts in the lake and traditional database with experience of working from landing to the reporting layerKnowledge and experience in value-added areas of automation, scriptingKnowledgeable about the different types of cloud-based storage resources and distributed systemsRelational databases (SQL Server, MySQL etc.), NoSQL and writing queriesHands-on analytical, visualisation and exploration skillsExperience of working in Agile methodologyExperience of working with API’s and good knowledge of API-based Integration and Microservices architecturePractical experience of improving data quality and efficiencySolid understanding of DevOps and CI/CDUnderstanding of compliance and lifecycle of data managementCoding experience in any relevant language (Python, Pyspark etc.)Strong communication skills in EnglishExperience collaborating with multinational teamsPlease be aware that this position requires fluency in English, kindly submit your application in English.JATO Dynamics is a global business and our success is attributed to the diversity, skills and experiences of our colleagues across the world. We are proud to be an equal opportunity employer and are committed to equal employment opportunity regardless of race, sex, age, gender identity, sexual orientation, religion or belief, disability, marital status or veteran status.</v>
+      </c>
+      <c r="F55" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-data-engineer-en-cuajimalpa-de-morelos-F72CA035896C536061373E686DCF3405#lc=ListOffers-Score3-13</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Project Engineer - Experiencia en industria de la construcción</v>
+      </c>
+      <c r="B56" t="str">
+        <v>MPI</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Guadalajara, Jalisco</v>
+      </c>
+      <c r="D56" t="str">
+        <v>$ 21,000.00</v>
+      </c>
+      <c r="E56" t="str">
+        <v>Specific tasks or activities:1. Planning and CoordinationConfirm attendance and issues to be discussed at meetings with the Project Manager (PM) and the Supervisor (Superintendent).Participate in regular meetings with the General Contractor to discuss project scheduling.Organize and coordinate the tasks of subcontractors together with the Project Manager.Request a detailed schedule covering the next three weeks from the General Contractor.Manage and update the project schedule.Create the Survey Request and send it to the contractor2. Communication and CoordinationPrepare weekly reports detailing the quantities of material and work performed.Create and maintain a list of key HLE (High Light Electric) contacts for the General Contractor in collaboration with the Project Manager.Write serial letters that can be used for formal communication.Prepare a monthly report summarizing the amounts of work performed and a cost analysis.3. Project Documentation ManagementManage the lifecycle of the corresponding documentation for each of the projects in ClickUp and PROCORE (USA Tickets, RFI, DCR, METS, etc.)Monitor the USA ticket system to identify issues or pending requests.Manage and update tasks related to the Project Final Estimate (PFE) in ClickUp and PROCORE.Create a task in ClickUp and PROCORE to manage RFI tracking and store relevant information in SharePoint.Create the respective submittals for each project in collaboration with the Project Manager.Creation of Change Order Management together with the Project Manager.4. Quality Control and Collaboration with the FIELDMonitor and review the quality of daily work based on the record of daily reported hours (DCR).Review and update plans based on work actually performed on site (ASBUILTS).Prepare and submit requests for quality reviews by the Materials and Equipment Survey System (METS).Generate a list of all submissions made and document Quality Verified (QV) specifications.5. Cost Management and Control.Request and follow up with the Project Manager on quotes for the acquisition of additional materials for work (Extra Work Material Order, EWB)Supervise and manage, together with the Project Manager, the balance and details of purchase orders (PO) and materials, tools, and equipment (MPO).Verify and approve invoices related to the purchase of materials and prepare cost analysis reports (with information approved by the inspector).Monitor costs associated with equipment and materials rentals and report variances to the Project Manager.Prepare and submit payment estimates to contractors and suppliers, with review by the Project Manager prior to submission.Control the material at the project work site for proper use.6. Change and Dispute ManagementSupport, when required by the Project Manager, in drafting a preliminary Notice of Opportunity for Change (NOPC) document.Assist in the calculation and documentation of estimated costs associated with the implementation of proposed changes to the NOPC for Project Manager approval.Support the Project Manager in drafting the documentation package required for an arbitration or Dispute Resolution Board (DRB) process.Monitor and manage costs associated with project disputes or claims.Managing the identification of Request for Information (RFI) to the General Contractor, as well as preparing and submitting the necessary documentation for RFI approval.Creating a cost proposal based on an analysis generated by the Assistant Project Manager and the Project Manager, managing follow-up and actions to be taken based on the cost proposal.</v>
+      </c>
+      <c r="F56" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-project-engineer-experiencia-en-industria-de-la-construccion-en-guadalajara-BF197E30DB35B40061373E686DCF3405#lc=ListOffers-Score3-14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Especialista de Marketing - Paid Media</v>
+      </c>
+      <c r="B57" t="str">
+        <v>GoStrategy</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Venezuela</v>
+      </c>
+      <c r="D57" t="str">
+        <v>$ 60,000.00</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Especialista de Marketing - Paid MediaModalidad 100% Remota | Full Time (Zona Horaria Argentina)Nuestro Cliente: Una agencia de marketing digital especializada en performance y paid mediaestá buscando sumar a su equipo un/a Analista de Campañas Sr. que garantice los resultadosque esperan sus clientes a través del análisis, planeación, implementación y seguimientoconstante de estrategias y campañas.Este rol tiene como principal objetivo liderar la estrategia y performance de las cuentasasignadas, acompañando a un equipo de Account Strategists para maximizar el impacto decada acción.Buscamos a alguien que sea…Proactivo, con mentalidad estratégica y enfoque 100% en resultados.Apasionado por los datos, las métricas y la optimización constante.Capaz de anticiparse a los problemas y proponer soluciones creativas y efectivas.Con vocación de liderazgo para guiar y potenciar a su equipo.Responsabilidades claveIdentificar necesidades, oportunidades y desafíos de cada cuenta.Planificar y coordinar estrategias de medios alineadas a los objetivos del cliente.Armar y supervisar la correcta implementación del plan de medios.Liderar la gestión y optimización de campañas SEM.Detectar oportunidades de up selling / cross selling.Crear informes de resultados con análisis cualitativo y cuantitativo.Presentar propuestas estratégicas a clientes actuales y potenciales.Coordinar con diseñadores, proveedores y otros partners externos.Construir relaciones sólidas con los stakeholders de cada proyecto.Capacitar y acompañar el desarrollo de su equipo de Account Strategists.Requisitos técnicos:+2 años de experiencia gestionando campañas SEM.Sólido manejo de Google Ads y Meta Ads.Dominio de GA4, Google Merchant Center Next y Looker Studio.Experiencia en campañas full funnel.Alta capacidad de análisis y optimización basada en datos.Manejo avanzado de Excel/Spreadsheets.Creación de reportes automatizados.Deseables / Plus:Search Ads 360 y Amazon AdsFirebase, Adjust o AppsflyerCampañas en Bing AdsCertificaciones Google Ads / GA4Conocimientos en GTM y sistemas de atribución (Floodlights, etc.)Experiencia liderando equipos y/o formando colegasSkills clave que valoramos:Pensamiento analítico y enfoque a resultadosCapacidad de planificación y ejecuciónLiderazgo y acompañamiento de equiposResolución de problemasComunicación clara y efectivaFlexibilidad y adaptabilidad al cambioModalidad y beneficiosJornada Full Time (Argentina): lunes a viernes de 08:00 a 17:00 o de 09:00 a 18:00100% remotoSalario 700 dlsViernes flex todo el añoDía de cumpleaños libreDía libre en tu aniversario laboralAcceso a capacitaciones internas y a plataforma Platzi</v>
+      </c>
+      <c r="F57" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-especialista-de-marketing-paid-media-en-venezuela-E9CC7E5CE22CB80861373E686DCF3405#lc=ListOffers-Score3-15</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Senior Software Developer - Freelance</v>
+      </c>
+      <c r="B58" t="str">
+        <v>Ciudadela</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Colombia</v>
+      </c>
+      <c r="D58" t="str">
+        <v>No especificado</v>
+      </c>
+      <c r="E58" t="str">
+        <v>### Misión- Construye una plataforma que será utilizado por miles de usuarios- Trabaja con el equipo para crear herramientas que ayudan a escalar y automatizar una industria- Propón cambios que ayudan a la experiencia de desarrolladores### Beneficios- Trabajo remoto- Posibilidad de construir producto que va a ser utilizado inmediatamente por miles de usuarios### Requisitos- 5 años de experiencia- Typescript- Node.js- React- Graphql- API development- Git- Next.js- TDD with Jest- DockerN- Github actions- GCloud</v>
+      </c>
+      <c r="F58" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-senior-software-developer-freelance-en-colombia-2298B38A14D41E1E61373E686DCF3405#lc=ListOffers-Score3-16</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Agente de ventas Call Center - Remoto</v>
+      </c>
+      <c r="B59" t="str">
+        <v>Nova NRG</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Colombia</v>
+      </c>
+      <c r="D59" t="str">
+        <v>No especificado</v>
+      </c>
+      <c r="E59" t="str">
+        <v>Nova NRG is more than just a solar sales company; we’re a powerhouse of innovation and ambition, headquartered in sunny Miami, Florida. Our mission is simple yet impactful: empower homeowners with clean, renewable energy solutions that save money and the planet.At Nova NRG, we celebrate ambition and hard work. Join a dynamic, supportive team that values your drive to succeed. Whether you’re an experienced pro or ready to take your sales career to the next level, we provide the tools, training, and incentives to help you thrive in the booming solar industry.Candidates must submit their CV in English to be considered for the position.What You’ll Do:* Inspire Action: Use your persuasive communication skills to reach out to potential customers, introducing them to the exciting benefits of solar energy.* Set the Stage: Book high-quality appointments for our expert solar consultants through effective cold calling and rapport-building.* Be the Expert: Educate homeowners on solar solutions, answer questions, and create interest in sustainable energy.* Collaborate &amp; Win: Work closely with the sales team to ensure smooth transitions and contribute to team success in a high-energy, results-driven environment.What We Offer:* Unlimited Earnings Potential: 800 USD base pay + generous commissions, and performance bonuses.* Growth Opportunities: Comprehensive training and mentorship to help you succeed and advance your career.* Recognition &amp; Rewards: Exciting contests, incentives, and perks for top performers who go above and beyond.* Cutting-Edge Tools: Access to industry-leading software and technology to maximize your efficiency and success.* Positive Team Culture: Join a vibrant, ambitious team where your achievements are celebrated.Qualifications:* Proven Experience: Minimum of 2 years of cold calling or telemarketing experience, with a history of setting appointments or closing deals.* Bilingual Excellence: Fluent in both English and Spanish to connect with a diverse range of customers.* Goal-oriented: A driven individual passionate about exceeding targets and delivering exceptional customer service.* Communication Mastery: Strong interpersonal and negotiation skills to engage effectively in a fast-paced environment.* Self-Starter: Motivated, ambitious, and eager to contribute to team success with a positive, can-do attitude.* Must have a reliable computer, headset, and stable internet connection to work remotely.Join Us and Unleash Your Potential!This is your chance to elevate your sales career with Nova NRG. Be part of a company that rewards ambition and hard work with unparalleled growth and financial success opportunities. Apply now to take the first step toward achieving greatness with us. Together, we’ll light up the future!</v>
+      </c>
+      <c r="F59" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-agente-de-ventas-call-center-remoto-en-colombia-FB12661F394AAE9561373E686DCF3405#lc=ListOffers-Score3-17</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Mechanics - with minimum 2 years experience</v>
+      </c>
+      <c r="B60" t="str">
+        <v>4Tracks Ltd.</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Canadá</v>
+      </c>
+      <c r="D60" t="str">
+        <v>$1,600</v>
+      </c>
+      <c r="E60" t="str">
+        <v>Exciting Career Opportunities Await!Join us at the 4 Tracks Ltd. Job Fair in Mexico City and take the next step in your career in Canada!Dates: April 4-6, 2025Time: 10:00 AM - 5:00 PMLocation: Hyatt Regency Mexico CityAddress: Campos Elíseos 204, Polanco, Polanco Chapultepec, Miguel Hidalgo, 11560 Ciudad de México, CDMXWe are looking for skilled Heavy Duty Mechanics &amp; Reefer Technicians to join our growing team! If you have a minimum of 2 years of experience, this is your chance to be part of a company that values expertise and dedication.Requirements to Apply:Minimum Grade 12 educationIELTS - CLB 4 (English Proficiency)At 4 Tracks Ltd., we believe in building strong teams and providing exciting opportunities for growth. Whether you’re an experienced professional or looking for a fresh start in Canada, we want to meet you!</v>
+      </c>
+      <c r="F60" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-mechanics-with-minimum-2-years-experience-en-canada-83957DDE751B182361373E686DCF3405#lc=ListOffers-Score3-18</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Sales Representative - Remote</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Nova NRG</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Cuauhtémoc, Ciudad de México DF</v>
+      </c>
+      <c r="D61" t="str">
+        <v>$ 16,000.00</v>
+      </c>
+      <c r="E61" t="str">
+        <v>Nova NRG is more than just a solar sales company; we’re a powerhouse of innovation and ambition, headquartered in sunny Miami, Florida. Our mission is simple yet impactful: empower homeowners with clean, renewable energy solutions that save money and the planet.At Nova NRG, we celebrate ambition and hard work. Join a dynamic, supportive team that values your drive to succeed. Whether you’re an experienced pro or ready to take your sales career to the next level, we provide the tools, training, and incentives to help you thrive in the booming solar industry.Candidates must submit their CV in English to be considered for the position.What You’ll Do:* Use your persuasive communication skills to reach out to potential customers, introducing them to the exciting benefits of solar energy.*Book high-quality appointments for our expert solar consultants through effective cold calling and rapport-building.* Educate homeowners on solar solutions, answer questions, and create interest in sustainable energy.* Work closely with the sales team to ensure smooth transitions and contribute to team success in a high-energy, results-driven environment.What We Offer:* Salary base 800 USD monthly (paid weekly) + commissions.* Comprehensive training and mentorship to help you succeed and advance your career.* Exciting contests, incentives, and perks for top performers who go above and beyond.* Access to industry-leading software and technology to maximize your efficiency and success.* Join a vibrant, ambitious team where your achievements are celebrated.Qualifications:* Minimum of 2 years of cold calling or telemarketing experience, with a history of setting appointments or closing deals.* Fluent in both English and Spanish to connect with a diverse range of customers.* A driven individual passionate about exceeding targets and delivering exceptional customer service.* Strong interpersonal and negotiation skills to engage effectively in a fast-paced environment.* Motivated, ambitious, and eager to contribute to team success with a positive, can-do attitude.* Must have a reliable computer, headset, and stable internet connection to work remotely.Join Us and Unleash Your Potential!This is your chance to elevate your sales career with Nova NRG. Be part of a company that rewards ambition and hard work with unparalleled growth and financial success opportunities. Apply now to take the first step toward achieving greatness with us. Together, we’ll light up the future!</v>
+      </c>
+      <c r="F61" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-sales-representative-remote-en-cuauhtemoc-72D96FEC248FBE0A61373E686DCF3405#lc=ListOffers-Score3-19</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Senior Software Developer - Freelance</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Ciudadela</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Colombia</v>
+      </c>
+      <c r="D62" t="str">
+        <v>No especificado</v>
+      </c>
+      <c r="E62" t="str">
+        <v>### Misión- Construye una plataforma que será utilizado por miles de usuarios- Trabaja con el equipo para crear herramientas que ayudan a escalar y automatizar una industria- Propón cambios que ayudan a la experiencia de desarrolladores### Beneficios- Trabajo remoto- Posibilidad de construir producto que va a ser utilizado inmediatamente por miles de usuarios### Requisitos- 5 años de experiencia- Typescript- Node.js- React- Graphql- API development- Git- Next.js- TDD with Jest- DockerN- Github actions- GCloud</v>
+      </c>
+      <c r="F62" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-senior-software-developer-freelance-en-colombia-2298B38A14D41E1E61373E686DCF3405#lc=ListOffers-Score3-0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>U.S. Hospitality Internship Program - Iintern/Trainee</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Kettelsen Consulting (TN Visa Advisors)</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Tlalnepantla de Baz, Estado de México</v>
+      </c>
+      <c r="D63" t="str">
+        <v>$ 60,000.00</v>
+      </c>
+      <c r="E63" t="str">
+        <v>Unlock Your Potential with Our U.S. Hospitality Internship Program!We offer a broad portfolio of properties in the United States, including resorts, country clubs, and castles from the most recognized hotel brands in the industry. All our internships are paid, and you’ll have the opportunity to experience the culture and gain valuable experience in the hospitality industry. We’ll assist you throughout the J-1 visa process!Our program focuses on the Hospitality, Tourism, and Culinary sectors, offering operational and entry-level roles. Salaries are determined by the host company and will be specified in your internship offer.• Comprehensive Assessment and Guidance: Receive expert review of your resume, tailored interview coaching, and personalized job placement assistance to ensure a smooth entry into your internship role.• Pre-Departure and Immigration Support: Benefit from thorough pre-departure briefings and hassle-free immigration assistance, including visa applications and essential documentation.• Insurance and Ongoing Support: Enjoy insurance coverage throughout your internship and continuous support with regular online check-ins to monitor your progress and address any issues.• Online Orientation and Resources: Access an extensive online orientation program and resources to help you adapt quickly and effectively to life in the U.S.• Professional Networking: Connect with over 200 prestigious employers offering internships and trainee positions through our exclusive online portal.Placement Guaranteed for Qualified Candidates!Requirements• Educational Background: Open to current university students, recent graduates, or experienced professionals.• Field of Study or Experience: Relevant academic background or professional experience in hospitality, tourism, or culinary arts.• Language Proficiency: Conversational English proficiency required.• Age: Applicants must be between 18 and 30 years old.• Educational Institution: Must be enrolled in or have graduated from a university outside the United States.• Valid Passport: A valid, unexpired passport is required.• Professional Experience: For those graduated over 12 months ago, a certificate of employment in a relevant role is necessary. Professionals without a degree must show relevant full-time work experience.BenefitsWhy Choose Our Program?• Global and Cultural Enrichment: Enhance your personal and professional growth with a rich international and cultural experience.• Personalized Support: Receive dedicated assistance throughout your internship to ensure a successful and rewarding experience.• Career Opportunities: Potential for post-graduation employment under a professional work visa, such as the TN Visa.• Skill Development: Acquire valuable hands-on experience and improve your English skills, boosting your employability in the U.S. job market.Lifetime Network Access: Enjoy lifetime access to our expansive network of employers offering internships and trainee positions.Ready to take the next step in your career? Apply now and unlock a world of opportunities!</v>
+      </c>
+      <c r="F63" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-us-hospitality-internship-program-iinterntrainee-en-tlalnepantla-de-baz-46BD4B3BBBDAC70461373E686DCF3405#lc=ListOffers-Score3-1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>Analistas de Contabilidad General - Corporativo Hyatt</v>
+      </c>
+      <c r="B64" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Benito Juárez, Quintana Roo</v>
+      </c>
+      <c r="D64" t="str">
+        <v>$ 16,521</v>
+      </c>
+      <c r="E64" t="str">
+        <v>En ALG / Grupo Hyatt nos encontramos en búsqueda de tu talento como:Analistas de Contabilidad General - Corporativo HYATTEn esta posición serás responsable de mantener registros financieros precisos y oportunos, gestionando asientos contables, conciliando cuentas y asegurando el cumplimiento de las normas contables. Este puesto implica trabajar en un entorno de servicios compartidos para apoyar los procesos de cierre de fin de mes y de fin de año para el grupo hotelero.Tus principales funciones serán:• Asientos Contables: Preparar, revisar y registrar asientos contables para asegurar el registro preciso de las transacciones financieras en el libro mayor.• Conciliación de Cuentas: Conciliar regularmente las cuentas del libro mayor, identificando y resolviendo discrepancias para garantizar la integridad de los datos financieros.• Cierre de Mes/Año: Apoyar en los procesos de cierre de fin de mes y de fin de año, asegurando que toda la información financiera se informe con precisión y a tiempo.• Reportes Financieros: Apoyar la preparación de estados financieros e informes proporcionando datos y análisis precisos del libro mayor.• Cumplimiento y Controles: Mantener el cumplimiento de los controles internos, las políticas contables y las regulaciones externas, y apoyar en la preparación de auditorías cuando sea necesario.• Mejora de Procesos: Identificar y recomendar mejoras en los procesos de contabilidad general, y contribuir a la implementación de mejores prácticas en el entorno de servicios compartidos.• Colaboración: Trabajar estrechamente con otros equipos financieros, como Cuentas por Pagar y Planificación Financiera, para asegurar una correcta y oportuna información financiera.Tu perfil:• Licenciatura en Contabilidad, Finanzas o afín.• Experiencia previa en contabilidad general o en un rol similar.• Deseable conocimiento en operaciones de Servicios Compartidos.• Deseable experiencia en la industria hotelera.• Buen manejo de paquetería Microsoft Office.• Dominio de software contable y sistemas ERP.• Experiencia con Oracle es un plus.Postula aquí y envía tu CV al correo de contacto.</v>
+      </c>
+      <c r="F64" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-analistas-de-contabilidad-general-corporativo-hyatt-en-benito-juarez-71D6492CFB74450461373E686DCF3405#lc=ListOffers-Score0-2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>Hyatt ServiceNow Engineer – React development and Custom Applications - Remote Opportunity – Valid U.S. visa requires</v>
+      </c>
+      <c r="B65" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Benito Juárez, Quintana Roo</v>
+      </c>
+      <c r="D65" t="str">
+        <v>$ 16,521</v>
+      </c>
+      <c r="E65" t="str">
+        <v>The OpportunityHyatt Hotels Corporation seeks an enthusiastic ServiceNow Engineer who is a passionate problem solver and delivers solutions to join our ServiceNow Department where you’ll join a team of seven ServiceNow professionals who love what they do. In this role, you will be collaborating closely with the broader Hyatt Financial Shared Services, IT teams, and non-IT teams where you’ll be instrumental in continuing to make Hyatt a leading hospitality company. With your abilities to research and understand new process and procedures along with your strong desire to learn, you’ll be developing, implementing, and migrating on a mature ServiceNow instance. You’ll use your deep understanding of ITSM core configurations, JavaScript, HTML while accurately breaking down tasks, unit testing, and delivering on time and in scope. You’ll be part of a team that is passionate about diversity, equity, and inclusion, is committed to nurturing curiosity and new skills with the ability to use feedback critical for growth, and building connections across the organization with stakeholders, colleagues, and guests.Who You AreAs our ideal candidate, you understand the power and purpose of our Culture of Care and embody our core values of Empathy, Inclusion, Integrity, Experimentation, Respect and Wellbeing. You enjoy working with a close fun team, are results driven, and want a variety of opportunities to develop personally and professionally.At Hyatt Hotels, ServiceNow is a major productivity solution and is a very important part of our mission to take care of people so they can be their best. ServiceNow Engineers serve on a professional deployment team to architect and deploy solutions within the ServiceNow platform for our Hyatt customers. Engineers provide administrative ServiceNow support, including troubleshooting, implementing bug fixes, and root cause analysis while using their ability to develop, configure, integrate, and/or implement with knowledge of the platform helping Hyatt keep up to date and enabling the best ServiceNow platform experience possible.Responsibilities:• Interact with customer team members to capture business requirements and translate them into appropriate technical solutions.• Commit to the continuous improvement and learning of development and ServiceNow best practices, tools, and technology• Support and develop in Hyatt’s custom Financial and Customer Service modules in ServiceNow• Responsible for providing accurate and up to date documentation on current ITSM processes or Custom Applications, using understandable business language• Monitors health, usage, and overall compliance of the ServiceNow platform• Works directly with ServiceNow Architect- IT and ServiceNow Manager to align the ServiceNow application with IT organization strategy• Works with key Financial Process Owners and leadership on priorities and being the main contact on the custom applications• The position responsibilities outlined above are in no way to be construed as all encompassing. Other duties, responsibilities and qualifications may be required and/or assigned as necessary• Occasions to create and lead Hyatt engineered Citizen Developer program• Opportunities to participate in Hyatt’s Diversity &amp; Inclusion activitiesQualificationsExperience Required:• 2-4+ years of work experience in ServiceNowExperience Preferred:• Bachelor’s degree in a related field however any combination of education, experience, and certification that demonstrates the candidate can be successful in the position is acceptable• Hands-on development experience with ServiceNow• Experience building ServiceNow solutions in non-IT contexts a plus• Strong working knowledge of ITIL practices• Web development experience using HTML5, CSS, JavaScript, Angular or React, and related technologies preferred• Knowledge of web services (SOAP, REST or JSON)• Exposure to integrating ServiceNow with other applications or databases.• Experience with ServiceNow’s Service Portal and CSM modules• Exposure to Configurable Workspaces and UI Builder• An interest in leveraging new features / technologies is critical• Ability to learn new technologies as they relate to the ongoing improvement of the ServiceNow platform• System analysis &amp; design skills, technical writing skills• Critical thinking and a desire to provide user friendly and professional platform to Hyatt internal customers is required• Experience with Agile (or Scale Agile Framework) project management processes a plus• Adaptable to change and able to work independently and as part of a team• Effectively manage multiple projects concurrently while maintaining a high level of attention to detail on each project• Strong communication skills (oral and written)• Ability to work with individuals across multiple functions• Ability to communicate with several senior leaders within the companyAdditional Comments and Requirements:• Valid USA Visa and Ability to travel worldwide on as as-needed basis for meetings and conventions is required (up to 10% of total work hours)• Provide ServiceNow support on-call outside normal working hours during ServiceNow upgrades, major platform incidents or events</v>
+      </c>
+      <c r="F65" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-hyatt-servicenow-engineer-react-development-and-custom-applications-remote-opportunity-valid-us-visa-requires-en-benito-juarez-6F05B66AA188529261373E686DCF3405#lc=ListOffers-Score0-3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Junior Financial Data Analyst – Shared Services - Datamaster</v>
+      </c>
+      <c r="B66" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Benito Juárez, Quintana Roo</v>
+      </c>
+      <c r="D66" t="str">
+        <v>$ 16,521</v>
+      </c>
+      <c r="E66" t="str">
+        <v>Vacante: Datamaster – Centro de Servicios Compartidos (SSC)Ubicación: Cancún Uno Office, Cancún, Quintana RooÁrea: Servicios Compartidos / Finanzas / DatosTipo de puesto: Tiempo completo | Nivel de entradaDescripción del puesto:Hyatt Hotels Corporation busca un/a Datamaster para unirse a nuestro Centro de Servicios Compartidos (SSC) en Cancún. Esta posición forma parte de un equipo dinámico que colabora con áreas como Contabilidad, Sistemas Corporativos y Operaciones Regionales, asegurando la integridad de los datos financieros y el cumplimiento de procesos clave.Responsabilidades principales:- Mantener y actualizar la estructura contable (Chart of Accounts) conforme a los estándares USALI.- Validar la consistencia de datos entre Oracle EBS y aplicaciones como Hyperion.- Procesar entradas contables automáticas y masivas.- Supervisar y validar datos maestros de proveedores y clientes.- Participar en iniciativas de mejora continua, calidad de datos y automatización.- Apoyar en reportes de desempeño relacionados con indicadores de nivel de servicio (SLA y KPIs).Requisitos:- Alta atención al detalle y habilidades organizativas.- Conocimiento de Excel y manejo de sistemas de datos.- Estudios en Contabilidad, Finanzas, Administración o carreras afines (deseable).- Deseable experiencia previa con Oracle EBS, Hyperion u otros sistemas ERP.- Deseable experiencia en hotelería o centros de servicios compartidos.Acerca de Hyatt:En Hyatt, nuestro propósito es cuidar a las personas para que puedan dar lo mejor de sí. Somos una compañía global en expansión que ofrece oportunidades reales de crecimiento. Formarás parte de una cultura que valora la inclusión, la integridad y la mejora continua.Postúlate hoy y sé parte de una organización reconocida como uno de los mejores lugares para trabajar.</v>
+      </c>
+      <c r="F66" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-junior-financial-data-analyst-shared-services-datamaster-en-benito-juarez-226C14A203EFF2BB61373E686DCF3405#lc=ListOffers-Score0-4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Hyatt ServiceNow Engineer – React development and Custom Applications - Remote Opportunity – Valid U.S. visa requires</v>
+      </c>
+      <c r="B67" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C67" t="str">
+        <v>Cuauhtémoc, Ciudad de México DF</v>
+      </c>
+      <c r="D67" t="str">
+        <v>$ 16,521</v>
+      </c>
+      <c r="E67" t="str">
+        <v>The OpportunityHyatt Hotels Corporation seeks an enthusiastic ServiceNow Engineer who is a passionate problem solver and delivers solutions to join our ServiceNow Department where you’ll join a team of seven ServiceNow professionals who love what they do. In this role, you will be collaborating closely with the broader Hyatt Financial Shared Services, IT teams, and non-IT teams where you’ll be instrumental in continuing to make Hyatt a leading hospitality company. With your abilities to research and understand new process and procedures along with your strong desire to learn, you’ll be developing, implementing, and migrating on a mature ServiceNow instance. You’ll use your deep understanding of ITSM core configurations, JavaScript, HTML while accurately breaking down tasks, unit testing, and delivering on time and in scope. You’ll be part of a team that is passionate about diversity, equity, and inclusion, is committed to nurturing curiosity and new skills with the ability to use feedback critical for growth, and building connections across the organization with stakeholders, colleagues, and guests.Who You AreAs our ideal candidate, you understand the power and purpose of our Culture of Care and embody our core values of Empathy, Inclusion, Integrity, Experimentation, Respect and Wellbeing. You enjoy working with a close fun team, are results driven, and want a variety of opportunities to develop personally and professionally.At Hyatt Hotels, ServiceNow is a major productivity solution and is a very important part of our mission to take care of people so they can be their best. ServiceNow Engineers serve on a professional deployment team to architect and deploy solutions within the ServiceNow platform for our Hyatt customers. Engineers provide administrative ServiceNow support, including troubleshooting, implementing bug fixes, and root cause analysis while using their ability to develop, configure, integrate, and/or implement with knowledge of the platform helping Hyatt keep up to date and enabling the best ServiceNow platform experience possible.Responsibilities:• Interact with customer team members to capture business requirements and translate them into appropriate technical solutions.• Commit to the continuous improvement and learning of development and ServiceNow best practices, tools, and technology• Support and develop in Hyatt’s custom Financial and Customer Service modules in ServiceNow• Responsible for providing accurate and up to date documentation on current ITSM processes or Custom Applications, using understandable business language• Monitors health, usage, and overall compliance of the ServiceNow platform• Works directly with ServiceNow Architect- IT and ServiceNow Manager to align the ServiceNow application with IT organization strategy• Works with key Financial Process Owners and leadership on priorities and being the main contact on the custom applications• The position responsibilities outlined above are in no way to be construed as all encompassing. Other duties, responsibilities and qualifications may be required and/or assigned as necessary• Occasions to create and lead Hyatt engineered Citizen Developer program• Opportunities to participate in Hyatt’s Diversity &amp; Inclusion activitiesQualificationsExperience Required:• 2-4+ years of work experience in ServiceNowExperience Preferred:• Bachelor’s degree in a related field however any combination of education, experience, and certification that demonstrates the candidate can be successful in the position is acceptable• Hands-on development experience with ServiceNow• Experience building ServiceNow solutions in non-IT contexts a plus• Strong working knowledge of ITIL practices• Web development experience using HTML5, CSS, JavaScript, Angular or React, and related technologies preferred• Knowledge of web services (SOAP, REST or JSON)• Exposure to integrating ServiceNow with other applications or databases.• Experience with ServiceNow’s Service Portal and CSM modules• Exposure to Configurable Workspaces and UI Builder• An interest in leveraging new features / technologies is critical• Ability to learn new technologies as they relate to the ongoing improvement of the ServiceNow platform• System analysis &amp; design skills, technical writing skills• Critical thinking and a desire to provide user friendly and professional platform to Hyatt internal customers is required• Experience with Agile (or Scale Agile Framework) project management processes a plus• Adaptable to change and able to work independently and as part of a team• Effectively manage multiple projects concurrently while maintaining a high level of attention to detail on each project• Strong communication skills (oral and written)• Ability to work with individuals across multiple functions• Ability to communicate with several senior leaders within the companyAdditional Comments and Requirements:• Valid USA Visa and Ability to travel worldwide on as as-needed basis for meetings and conventions is required (up to 10% of total work hours)• Provide ServiceNow support on-call outside normal working hours during ServiceNow upgrades, major platform incidents or events</v>
+      </c>
+      <c r="F67" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-hyatt-servicenow-engineer-react-development-and-custom-applications-remote-opportunity-valid-us-visa-requires-en-cuauhtemoc-E28B3997C060D78C61373E686DCF3405#lc=ListOffers-Score0-5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Coordinador de Operaciones de Transporte Turístico - Playa del Carmen</v>
+      </c>
+      <c r="B68" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Solidaridad, Quintana Roo</v>
+      </c>
+      <c r="D68" t="str">
+        <v>$ 18,000.00</v>
+      </c>
+      <c r="E68" t="str">
+        <v>En AMSTAR DMC !te estamos buscando¡ como Coordinador de Transporte para DMC que cumpla con el siguiente perfil:Objetivo:Asegurar que los conductores lleven a cabo los procedimientos establecidos para minimizar los riesgos de accidentes y brindar un excelente servicio a los clientes.Responsabilidades:• Realizar el horario de los operadores• Controlar la puntualidad y asistencia• Supervisar la presentación los operadores• Programar y supervisar la realización de diferentes cursos• Seguimiento al rendimiento de los controladores a través de Samsara• Coaching para operadores (reuniones uno a uno)• Evaluación del desempeño de los operadores• Seguimiento de las quejas que puedan realizar los clientes• Participar en reuniones semanales y/o mensuales tanto con el Supervisor de Conductores como con el Gerente de Transporte• Mantener reuniones con los conductores a su cargo• Realizar visitas de campo (Aeropuerto, Hoteles y Parking) para asegurar que los conductores realizan el procedimiento establecido.Perfil:• Experiencia en agencias de viajes o transportadoras, facilidad de palabra y manejo de personal, excelente actitud de servicio, conocimiento en tecnología (Computadora, Software y Smartphone, sistemas operativos), trabajo en equipo.• Conocimiento del destino, manejo de solución de situaciones con clientes no satisfechos, conocimiento de las ubicaciones y distancias entre Cancún y Riviera Maya, técnicas de gestión de conflictos para la atención al cliente.• Habilidades: Facilidad de comunicación, Efectividad en relaciones interpersonales, Facilidad de aprendizaje en uso de herramientas tecnológicas, supervisión de personal, realización de reportes.• Inglés intermedio deseable• Preparación académica: Bachillerato o Licenciatura.Ofrecemos prestaciones superiores a las de Ley, Seguro de Vida, GMM, buen ambiente de trabajo, facilidad de crecimiento.Sueldo mensual $18,000 brutosInteresados postularse por este medio con CV adjunto.</v>
+      </c>
+      <c r="F68" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-coordinador-de-operaciones-de-transporte-turistico-playa-del-carmen-en-solidaridad-80EE9ADA813BCF9461373E686DCF3405#lc=ListOffers-Score0-6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Agentes Comerciales, Contratación y Gestión de Productos Turísticos (Esquema híbrido) - para cubrir incapacidad por maternidad de 3 meses</v>
+      </c>
+      <c r="B69" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Benito Juárez, Quintana Roo</v>
+      </c>
+      <c r="D69" t="str">
+        <v>$ 16,521</v>
+      </c>
+      <c r="E69" t="str">
+        <v>¿Te apasiona el turismo y cuentas con habilidades de organización, negociación y análisis?Esta oportunidad es para ti!Estamos en búsqueda de tres Commercial Agent B, responsables de negociar, ingresar y actualizar información de productos turísticos (excursiones, traslados, hoteles y suplementos) en nuestras plataformas. Tu trabajo impactará directamente en la expansión de nuestro portafolio y en la mejora de la experiencia de nuestros clientes internos.Modalidad híbrida – combinamos trabajo presencial y remoto para mayor flexibilidad y eficiencia.Funciones clave:- Negociación y contratación con proveedores de servicios turísticos.- Ingreso, actualización y estandarización de productos en plataformas digitales.- Seguimiento a cotizaciones y solicitudes de personalización.- Comunicación efectiva con áreas internas y proveedores.- Control y cumplimiento de KPIs de carga, calidad y tiempos.Lo que buscamos:- Licenciatura concluida.- Inglés intermedio.- Habilidad para análisis de información, planeación y captura de datos.- Experiencia en turismo (deseable) y manejo de plataformas (Zoho, iData, ResRap, ALMA).- Capacidad para trabajar bajo presión y en equipo.Ofrecemos:- Sueldo mensual y prestaciones superiores a la ley- Modalidad híbrida de trabajo.- Participar en un equipo dinámico y con visión de crecimiento.- Aportar directamente al éxito comercial de la empresa.- Oportunidades de aprendizaje en el sector turístico.Aplica aqui con tu CV actualizado. Te desemoa exito en tu busqueda de empleo.Our Destination is You!</v>
+      </c>
+      <c r="F69" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-agentes-comerciales-contratacion-y-gestion-de-productos-turisticos-esquema-hibrido-para-cubrir-incapacidad-por-maternidad-de-3-meses-en-benito-juarez-3016FF45ED5C000761373E686DCF3405#lc=ListOffers-Score0-7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Analistas de Cuentas por Cobrar - Enfoque en Facturación</v>
+      </c>
+      <c r="B70" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Benito Juárez, Quintana Roo</v>
+      </c>
+      <c r="D70" t="str">
+        <v>$ 16,521</v>
+      </c>
+      <c r="E70" t="str">
+        <v>¡En Hyatt estamos buscando tu talento!Buscamos analistas de Cuentas por Cobrar – Enfoque en Facturación (Corporativo HYATT)¿Tienes experiencia en facturación y cuentas por cobrar? Esta oportunidad es para ti.En esta posición serás responsable de asegurar la emisión precisa y oportuna de facturas a nuestros clientes, así como de dar seguimiento al proceso completo de cobranza y conciliación dentro de un entorno de Servicios Compartidos. Tu labor será clave para mantener la salud financiera y flujo de caja del corporativo.Tus principales funciones serán:- Facturación: Emitir, revisar y distribuir facturas conforme a los términos contractuales y lineamientos fiscales, garantizando exactitud y trazabilidad.- Seguimiento de pagos: Registrar y aplicar pagos recibidos, manteniendo actualizado el libro mayor y detectando pagos pendientes o mal aplicados.- Gestión de cobranza: Dar seguimiento a saldos vencidos con una gestión proactiva y empática, reduciendo el riesgo de cuentas incobrables.- Conciliaciones contables: Conciliar cuentas por cobrar, identificar discrepancias y colaborar con otras áreas para su pronta resolución.- Atención a clientes internos y externos: Ser el punto de contacto para resolver dudas sobre facturación, saldos y pagos.- Elaboración de reportes: Apoyar en la generación de reportes de antigüedad de saldos, proyecciones de cobranza y análisis para la toma de decisiones.- Cumplimiento: Mantener documentación soporte organizada, cumpliendo con políticas internas, fiscales y auditorías.- Mejora continua: Proponer acciones que optimicen el ciclo de facturación y cobranza en el marco de Servicios Compartidos.Perfil ideal:- Licenciatura en Contabilidad, Finanzas o carrera afín.- Experiencia mínima de 1-2 años en facturación, cuentas por cobrar o áreas similares.- Deseable experiencia en ambientes de Servicios Compartidos.- Idealmente con conocimiento de la industria hotelera o turística.- Manejo intermedio-avanzado de Excel.- Conocimiento de sistemas contables y ERP (Oracle es un plus).- Atención al detalle, orientación al cliente y capacidad de análisis.Postúlate aquí o envía tu CV al correo de contacto.Sé parte de una empresa global, comprometida con la excelencia operativa y el desarrollo de talento.Care Connects Us!</v>
+      </c>
+      <c r="F70" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-analistas-de-cuentas-por-cobrar-enfoque-en-facturacion-en-benito-juarez-C0AFB1EDBC2FC63961373E686DCF3405#lc=ListOffers-Score0-8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Driver Coordinator - Playa del Carmen</v>
+      </c>
+      <c r="B71" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Solidaridad, Quintana Roo</v>
+      </c>
+      <c r="D71" t="str">
+        <v>$ 18,000.00</v>
+      </c>
+      <c r="E71" t="str">
+        <v>En AMSTAR DMC !te estamos buscando¡ como DRIVER COORDINATOR que cumpla con el siguiente perfil:Objetivo:Asegurar que los conductores lleven a cabo los procedimientos establecidos para minimizar los riesgos de accidentes y brindar un excelente servicio a los clientes.Responsabilidades:• Realizar el horario de los operadores• Controlar la puntualidad y asistencia• Supervisar la presentación los operadores• Programar y supervisar la realización de diferentes cursos• Seguimiento al rendimiento de los controladores a través de Samsara• Coaching para operadores (reuniones uno a uno)• Evaluación del desempeño de los operadores• Seguimiento de las quejas que puedan realizar los clientes• Participar en reuniones semanales y/o mensuales tanto con el Supervisor de Conductores como con el Gerente de Transporte• Mantener reuniones con los conductores a su cargo• Realizar visitas de campo (Aeropuerto, Hoteles y Parking) para asegurar que los conductores realizan el procedimiento establecido.Perfil:• Experiencia en agencias de viajes o transportadoras, facilidad de palabra y manejo de personal, excelente actitud de servicio, conocimiento en tecnología (Computadora, Software y Smartphone, sistemas operativos), trabajo en equipo.• Conocimiento del destino, manejo de solución de situaciones con clientes no satisfechos, conocimiento de las ubicaciones y distancias entre Cancún y Riviera Maya, técnicas de gestión de conflictos para la atención al cliente.• Habilidades: Facilidad de comunicación, Efectividad en relaciones interpersonales, Facilidad de aprendizaje en uso de herramientas tecnológicas, supervisión de personal, realización de reportes.• Inglés intermedio deseable• Preparación académica: Bachillerato o Licenciatura.Ofrecemos prestaciones superiores a las de Ley, Seguro de Vida, GMM, buen ambiente de trabajo, facilidad de crecimiento.Sueldo mensual $18,000 brutosInteresados postularse por este medio con CV adjunto.</v>
+      </c>
+      <c r="F71" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-driver-coordinator-playa-del-carmen-en-solidaridad-6783055E4B454A1861373E686DCF3405#lc=ListOffers-Score0-9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Operador de Van de Turismo - Playa del Carmen</v>
+      </c>
+      <c r="B72" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Solidaridad, Quintana Roo</v>
+      </c>
+      <c r="D72" t="str">
+        <v>$ 13,200.00</v>
+      </c>
+      <c r="E72" t="str">
+        <v>En Amstar DMC buscamos tu talento como:Operador de Van de Turismo (Driver)Tu perfil:- Al menos 1 año de experiencia como operador de van.- Licencia federal AF.- Examen psicofísico vigente.- Preparatoria terminada.- Inglés básico - intermedio.- Disponibilidad de horario.- Sexo indistinto.- Folio de baja de la TIA.Ofrecemos:- Sueldo de $13,200 MXN brutos + propinas.- IMSS- 12 días de vacaciones.- 15 días de aguinaldo.- 25% de prima vacacional.- Vales.- Seguro de Vida.Tenemos vacantes en Playa del Carmen.</v>
+      </c>
+      <c r="F72" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-operador-de-van-de-turismo-playa-del-carmen-en-solidaridad-8731AD62FC18DDEC61373E686DCF3405#lc=ListOffers-Score0-10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Representante de ventas en mesas de hospitalidad - En Cancún</v>
+      </c>
+      <c r="B73" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Benito Juárez, Quintana Roo</v>
+      </c>
+      <c r="D73" t="str">
+        <v>$ 16,521</v>
+      </c>
+      <c r="E73" t="str">
+        <v>Únete a nuestro equipo como Representante de Ventas en mesas de Hospitalidad en Cancún¡Estamos en expansión y buscamos talento como el tuyo! Si tienes habilidades en ventas, disfrutas el trato con clientes y quieres formar parte de una empresa en crecimiento, esta es tu oportunidad.Tu misión:Brindar un servicio de clase mundial a nuestros clientes y alcanzar altos volúmenes de venta, siempre reflejando nuestros valores y manteniendo una excelente imagen profesional.¿Qué harás?• Ofrecer una cálida bienvenida a los huéspedes en sus primeras 24 horas y establecer un contacto profesional.• Proporcionar información sobre nuestros productos y servicios, así como sobre las opciones disponibles en los hoteles.• Identificar y coordinar soluciones para situaciones que puedan afectar la experiencia del huésped.• Cumplir con las metas de ventas y procedimientos de reservación, cancelación y manejo de dinero.• Participar en viajes de familiarización, entrenamientos y actividades para fortalecer tu conocimiento del destino.• Mantener relaciones positivas con clientes, socios y colegas.• Elaborar reportes claros y precisos sobre las operaciones diarias.¿A quién buscamos?• Personas extrovertidas, con facilidad de palabra y pasión por el servicio al cliente.• Experiencia mínima de 1 año en ventas, servicio al cliente, mercadotecnia o relaciones públicas.• Habilidades en cierre de ventas, comunicación efectiva y uso de tecnología (terminales bancarias, software, smartphones).• Disponibilidad para turnos rotativos semanales según la zona asignada, con descanso entre semana.• Dominio del inglés en un 90%.• Bachillerato concluido o licenciatura.Lo que ofrecemos:Esquema de comisiones atractivo.Prestaciones superiores a la ley.Seguro de vida y gastos médicos mayores.Excelente ambiente de trabajo y oportunidades de crecimiento.Si cumples con el perfil, ¡postúlate enviando tu CV por este medio y forma parte de nuestro equipo!</v>
+      </c>
+      <c r="F73" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-representante-de-ventas-en-mesas-de-hospitalidad-en-cancun-en-benito-juarez-AD69CAE71123268A61373E686DCF3405#lc=ListOffers-Score0-11</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Representante de ventas en hoteles - En Cozumel</v>
+      </c>
+      <c r="B74" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Cozumel, Quintana Roo</v>
+      </c>
+      <c r="D74" t="str">
+        <v>$ 16,521</v>
+      </c>
+      <c r="E74" t="str">
+        <v>¡Da el siguiente paso en tu carrera! En Amstar estamos en búsqueda de tu talento como REPRESENTANTES DE VENTAS EN HOTELES en la Ciudad de Cozumel.Tu objetivo será:Prestar un excelente servicio de clase mundial a todos nuestros clientes, así como generar altos volúmenes de venta de acuerdo a las metas establecidas, cuidando la imagen y valores empresariales en todo momento.Tus principales funciones serán:• Brindar un servicio de clase mundial (WCCS) a todos nuestros clientes de las diferentes cuentas que sirve la empresa.• Dar una presentación de bienvenida a la llegada de los huéspedes en sus hoteles estableciendo un contacto profesional con todos ellos en las primeras 24 horas de su llegada.• Proporcionar a los huéspedes en los hoteles información sobre los productos y servicios que nuestra empresa ofrece, así como también sobre servicios ofrecidos por los hoteles en donde estemos trabajando, sus políticas y procedimientos.• Reconocer situaciones que estuvieran afectando las vacaciones de los huéspedes, coordinando la implementación de soluciones efectivas con el personal del hotel si es posible o y reportando a la gerencia de la empresa y del hotel.• Lograr los objetivos y metas de ventas establecidas.• Cumplir con los lineamientos establecidos por la empresa sobre la reservación, venta, cancelación, reembolso, reportes de excursiones, y manejo del dinero.• Elaborar reportes exactos y precisos de acuerdo con las políticas y procedimientos establecidos.• Participar a todos los viajes de familiarización, excursiones y hoteles requeridos por la empresa.• Participar a todos los cursos de formación y entrenamiento requeridos.• Establecer y mantener excelentes relaciones con todos nuestros socios, colegas y clientes de acuerdo con las políticas establecidas.• Escribir reportes sobre asuntos que haya o pudieran impactar directa o indirectamente la vacación de los huéspedes en el hotel.Perfil:• Extrovertido, facilidad de palabra y manejo de servicio a clientes, excelente actitud de servicio, conocimiento en tecnología (terminales bancarias, computadora, Software y Smartphone), buena presentación, trabajo en equipo.• Conocimiento del destino, experiencia mínima de 1 año en las áreas de servicio a clientes, ventas, mercadotecnia y/o relaciones públicas, Manejo de solución de situaciones con clientes no satisfechos.• Habilidades: Cierre de ventas, Facilidad de comunicación, Efectividad en relaciones interpersonales, Facilidad de aprendizaje en uso de herramientas tecnológicas (terminales bancarias, computadora, software y Smart phones)• Dominio del idioma inglés 90%.• Preparación académica: Bachillerato o Licenciatura.SUELDO BASADO EN COMISIONESOfrecemos prestaciones superiores a las de Ley, Seguro de Vida, GMM, buen ambiente de trabajo, facilidad de crecimiento.Interesados postularse por este medio con CV adjunto."Cuidamos de las personas para que puedan alcanzar su mejor versión."</v>
+      </c>
+      <c r="F74" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-representante-de-ventas-en-hoteles-en-cozumel-en-cozumel-796CCF50654F84C061373E686DCF3405#lc=ListOffers-Score0-12</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Representante de ventas en hoteles - En Playa del Carmen</v>
+      </c>
+      <c r="B75" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Solidaridad, Quintana Roo</v>
+      </c>
+      <c r="D75" t="str">
+        <v>$ 16,521</v>
+      </c>
+      <c r="E75" t="str">
+        <v>Por expansión, nos enconntramos en búsqueda de tu talento comoREPRESENTANTES DE VENTAS EN HOTELES en la Ciudad de PLAYA DEL CARMEN,Tu objetivo será:Prestar un excelente servicio de clase mundial a todos nuestros clientes, así como generar altos volúmenes de venta de acuerdo a las metas establecidas, cuidando la imagen y valores empresariales en todo momento.Tus responsabilidades serán:• Brindar un servicio de clase mundial (WCCS) a todos nuestros clientes de las diferentes cuentas que sirve la empresa.• Dar una presentación de bienvenida a la llegada de los huéspedes en sus hoteles estableciendo un contacto profesional con todos ellos en las primeras 24 horas de su llegada.• Proporcionar a los huéspedes en los hoteles información sobre los productos y servicios que nuestra empresa ofrece, así como también sobre servicios ofrecidos por los hoteles en donde estemos trabajando, sus políticas y procedimientos.• Reconocer situaciones que estuvieran afectando las vacaciones de los huéspedes, coordinando la implementación de soluciones efectivas con el personal del hotel si es posible o y reportando a la gerencia de la empresa y del hotel.• Lograr los objetivos y metas de ventas establecidas.• Cumplir con los lineamientos establecidos por la empresa sobre la reservación, venta, cancelación, reembolso, reportes de excursiones, y manejo del dinero.• Elaborar reportes exactos y precisos de acuerdo con las políticas y procedimientos establecidos.• Participar a todos los viajes de familiarización, excursiones y hoteles requeridos por la empresa.• Participar a todos los cursos de formación y entrenamiento requeridos.• Establecer y mantener excelentes relaciones con todos nuestros socios, colegas y clientes de acuerdo con las políticas establecidas.• Escribir reportes sobre asuntos que haya o pudieran impactar directa o indirectamente la vacación de los huéspedes en el hotel.Tu Perfil:• Extrovertido, facilidad de palabra y manejo de servicio a clientes, excelente actitud de servicio, conocimiento en tecnología (terminales bancarias, computadora, Software y Smartphone), buena presentación, trabajo en equipo.• Conocimiento del destino, experiencia mínima de 1 año en las áreas de servicio a clientes, ventas, mercadotecnia y/o relaciones públicas, Manejo de solución de situaciones con clientes no satisfechos.• Habilidades: Cierre de ventas, Facilidad de comunicación, Efectividad en relaciones interpersonales, Facilidad de aprendizaje en uso de herramientas tecnológicas (terminales bancarias, computadora, software y Smart phones)• Dominio del idioma inglés 90%.• Preparación académica: Bachillerato o Licenciatura.SUELDO BASADO EN COMISIONESOfrecemos prestaciones superiores a las de Ley, Seguro de Vida, GMM, buen ambiente de trabajo, facilidad de crecimiento.Interesados postularse por este medio con CV adjunto.</v>
+      </c>
+      <c r="F75" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-representante-de-ventas-en-hoteles-en-playa-del-carmen-en-solidaridad-9E74627D5CD2A96F61373E686DCF3405#lc=ListOffers-Score0-13</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Representante de ventas en hoteles - En Cancún</v>
+      </c>
+      <c r="B76" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Benito Juárez, Quintana Roo</v>
+      </c>
+      <c r="D76" t="str">
+        <v>$ 16,521</v>
+      </c>
+      <c r="E76" t="str">
+        <v>Únete a nuestro equipo como Representante de Ventas en Hoteles en Cancún¡Estamos en expansión y buscamos talento como el tuyo! Si tienes habilidades en ventas, disfrutas el trato con clientes y quieres formar parte de una empresa en crecimiento, esta es tu oportunidad.Tu misión:Brindar un servicio de clase mundial a nuestros clientes y alcanzar altos volúmenes de venta, siempre reflejando nuestros valores y manteniendo una excelente imagen profesional.¿Qué harás?• Ofrecer una cálida bienvenida a los huéspedes en sus primeras 24 horas y establecer un contacto profesional.• Proporcionar información sobre nuestros productos y servicios, así como sobre las opciones disponibles en los hoteles.• Identificar y coordinar soluciones para situaciones que puedan afectar la experiencia del huésped.• Cumplir con las metas de ventas y procedimientos de reservación, cancelación y manejo de dinero.• Participar en viajes de familiarización, entrenamientos y actividades para fortalecer tu conocimiento del destino.• Mantener relaciones positivas con clientes, socios y colegas.• Elaborar reportes claros y precisos sobre las operaciones diarias.¿A quién buscamos?• Personas extrovertidas, con facilidad de palabra y pasión por el servicio al cliente.• Experiencia mínima de 1 año en ventas, servicio al cliente, mercadotecnia o relaciones públicas.• Habilidades en cierre de ventas, comunicación efectiva y uso de tecnología (terminales bancarias, software, smartphones).• Disponibilidad para turnos rotativos semanales según la zona asignada, con descanso entre semana.• Dominio del inglés en un 90%.• Bachillerato concluido o licenciatura.Lo que ofrecemos:Esquema de comisiones atractivo.Prestaciones superiores a la ley.Seguro de vida y gastos médicos mayores.Excelente ambiente de trabajo y oportunidades de crecimiento.Si cumples con el perfil, ¡postúlate enviando tu CV por este medio y forma parte de nuestro equipo!</v>
+      </c>
+      <c r="F76" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-representante-de-ventas-en-hoteles-en-cancun-en-benito-juarez-8B15C400AF70469E61373E686DCF3405#lc=ListOffers-Score0-14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Representante de ventas en hoteles - En Huatulco</v>
+      </c>
+      <c r="B77" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Santa Cruz Huatulco, Oaxaca</v>
+      </c>
+      <c r="D77" t="str">
+        <v>$ 16,521</v>
+      </c>
+      <c r="E77" t="str">
+        <v>¡Da el siguiente paso en tu carrera! En Amstar estamos en búsqueda de tu talento como REPRESENTANTES DE VENTAS EN HOTELES en la Ciudad de Huatulco.Tu objetivo será:Prestar un excelente servicio de clase mundial a todos nuestros clientes, así como generar altos volúmenes de venta de acuerdo a las metas establecidas, cuidando la imagen y valores empresariales en todo momento.Tus principales funciones serán:• Brindar un servicio de clase mundial (WCCS) a todos nuestros clientes de las diferentes cuentas que sirve la empresa.• Dar una presentación de bienvenida a la llegada de los huéspedes en sus hoteles estableciendo un contacto profesional con todos ellos en las primeras 24 horas de su llegada.• Proporcionar a los huéspedes en los hoteles información sobre los productos y servicios que nuestra empresa ofrece, así como también sobre servicios ofrecidos por los hoteles en donde estemos trabajando, sus políticas y procedimientos.• Reconocer situaciones que estuvieran afectando las vacaciones de los huéspedes, coordinando la implementación de soluciones efectivas con el personal del hotel si es posible o y reportando a la gerencia de la empresa y del hotel.• Lograr los objetivos y metas de ventas establecidas.• Cumplir con los lineamientos establecidos por la empresa sobre la reservación, venta, cancelación, reembolso, reportes de excursiones, y manejo del dinero.• Elaborar reportes exactos y precisos de acuerdo con las políticas y procedimientos establecidos.• Participar a todos los viajes de familiarización, excursiones y hoteles requeridos por la empresa.• Participar a todos los cursos de formación y entrenamiento requeridos.• Establecer y mantener excelentes relaciones con todos nuestros socios, colegas y clientes de acuerdo con las políticas establecidas.• Escribir reportes sobre asuntos que haya o pudieran impactar directa o indirectamente la vacación de los huéspedes en el hotel.Perfil:• Extrovertido, facilidad de palabra y manejo de servicio a clientes, excelente actitud de servicio, conocimiento en tecnología (terminales bancarias, computadora, Software y Smartphone), buena presentación, trabajo en equipo.• Conocimiento del destino, experiencia mínima de 1 año en las áreas de servicio a clientes, ventas, mercadotecnia y/o relaciones públicas, Manejo de solución de situaciones con clientes no satisfechos.• Habilidades: Cierre de ventas, Facilidad de comunicación, Efectividad en relaciones interpersonales, Facilidad de aprendizaje en uso de herramientas tecnológicas (terminales bancarias, computadora, software y Smart phones)• Dominio del idioma inglés 90%.• Preparación académica: Bachillerato o Licenciatura.SUELDO BASADO EN COMISIONESOfrecemos prestaciones superiores a las de Ley, Seguro de Vida, GMM, buen ambiente de trabajo, facilidad de crecimiento.Interesados postularse por este medio con CV adjunto."Cuidamos de las personas para que puedan alcanzar su mejor versión."</v>
+      </c>
+      <c r="F77" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-representante-de-ventas-en-hoteles-en-huatulco-en-santa-cruz-huatulco-4BC996EBB84FC1DE61373E686DCF3405#lc=ListOffers-Score0-15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Coordinador de Transporte para DMC - Playa del Carmen</v>
+      </c>
+      <c r="B78" t="str">
+        <v>AMSTAR OPERACIONES DMC MX</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Solidaridad, Quintana Roo</v>
+      </c>
+      <c r="D78" t="str">
+        <v>$ 18,000.00</v>
+      </c>
+      <c r="E78" t="str">
+        <v>En AMSTAR DMC !te estamos buscando¡ como Coordinador de Transporte para DMC que cumpla con el siguiente perfil:Objetivo:Asegurar que los conductores lleven a cabo los procedimientos establecidos para minimizar los riesgos de accidentes y brindar un excelente servicio a los clientes.Responsabilidades:• Realizar el horario de los operadores• Controlar la puntualidad y asistencia• Supervisar la presentación los operadores• Programar y supervisar la realización de diferentes cursos• Seguimiento al rendimiento de los controladores a través de Samsara• Coaching para operadores (reuniones uno a uno)• Evaluación del desempeño de los operadores• Seguimiento de las quejas que puedan realizar los clientes• Participar en reuniones semanales y/o mensuales tanto con el Supervisor de Conductores como con el Gerente de Transporte• Mantener reuniones con los conductores a su cargo• Realizar visitas de campo (Aeropuerto, Hoteles y Parking) para asegurar que los conductores realizan el procedimiento establecido.Perfil:• Experiencia en agencias de viajes o transportadoras, facilidad de palabra y manejo de personal, excelente actitud de servicio, conocimiento en tecnología (Computadora, Software y Smartphone, sistemas operativos), trabajo en equipo.• Conocimiento del destino, manejo de solución de situaciones con clientes no satisfechos, conocimiento de las ubicaciones y distancias entre Cancún y Riviera Maya, técnicas de gestión de conflictos para la atención al cliente.• Habilidades: Facilidad de comunicación, Efectividad en relaciones interpersonales, Facilidad de aprendizaje en uso de herramientas tecnológicas, supervisión de personal, realización de reportes.• Inglés intermedio deseable• Preparación académica: Bachillerato o Licenciatura.Ofrecemos prestaciones superiores a las de Ley, Seguro de Vida, GMM, buen ambiente de trabajo, facilidad de crecimiento.Sueldo mensual $18,000 brutosInteresados postularse por este medio con CV adjunto.</v>
+      </c>
+      <c r="F78" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-coordinador-de-transporte-para-dmc-playa-del-carmen-en-solidaridad-9B083E8567FDE50861373E686DCF3405#lc=ListOffers-Score0-16</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Customer service agent - customer service agent</v>
+      </c>
+      <c r="B79" t="str">
+        <v>Smart Pro Connect</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Cuauhtémoc, Ciudad de México DF</v>
+      </c>
+      <c r="D79" t="str">
+        <v>$ 16,500.00</v>
+      </c>
+      <c r="E79" t="str">
+        <v>Job Overview We are seeking a Customer Service Representative (CSR) / Back Office to join our dynamic team. In this role, you will provide administrative support, manage communications, and ensure an efficient workflow between teams in Mexico and the United States. This position requires a highly organized, detail-oriented individual with near-native English proficiency.</v>
+      </c>
+      <c r="F79" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-customer-service-agent-customer-service-agent-en-cuauhtemoc-2B5413B12E3F606E61373E686DCF3405#lc=ListOffers-Score0-17</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>back office bilingual - back office bilingual</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Smart Pro Connect</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Cuauhtémoc, Ciudad de México DF</v>
+      </c>
+      <c r="D80" t="str">
+        <v>$ 16,500.00</v>
+      </c>
+      <c r="E80" t="str">
+        <v>Job Overview We are seeking a Customer Service Representative (CSR) / Back Office to join our dynamic team. In this role, you will provide administrative support, manage communications, and ensure an efficient workflow between teams in Mexico and the United States. This position requires a highly organized, detail-oriented individual with near-native English proficiency.</v>
+      </c>
+      <c r="F80" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-back-office-bilingual-back-office-bilingual-en-cuauhtemoc-1989D061C8F914FC61373E686DCF3405#lc=ListOffers-Score0-18</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>data entry bilingual agent - data entry bilingual agent</v>
+      </c>
+      <c r="B81" t="str">
+        <v>Smart Pro Connect</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Cuauhtémoc, Ciudad de México DF</v>
+      </c>
+      <c r="D81" t="str">
+        <v>$ 16,500.00</v>
+      </c>
+      <c r="E81" t="str">
+        <v>Job Overview We are seeking a Customer Service Representative (CSR) / Back Office to join our dynamic team. In this role, you will provide administrative support, manage communications, and ensure an efficient workflow between teams in Mexico and the United States. This position requires a highly organized, detail-oriented individual with near-native English proficiency.</v>
+      </c>
+      <c r="F81" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-data-entry-bilingual-agent-data-entry-bilingual-agent-en-cuauhtemoc-4D2D0B4D51E2D58561373E686DCF3405#lc=ListOffers-Score0-19</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Asistencia Conectividad WiFi - WiFi Concierge</v>
+      </c>
+      <c r="B82" t="str">
+        <v>SINGLE DIGITS MEXICO</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Los Cabos, Baja California Sur</v>
+      </c>
+      <c r="D82" t="str">
+        <v>$ 20,000.00</v>
+      </c>
+      <c r="E82" t="str">
+        <v>NOTA IMPORTANTE: SE CONSIDERARÁN PARA EL PROCESO EXCLUSIVAMENTE AQUELLOS CANDIDATOS RADICANDO EN CABO SAN LUCAS, B.C.SQuiénes somos:Brindamos a los usuarios finales THE CONNECTED LIFE EXPERIENCE: la EXPERIENCIA DE CONECTIVIDAD FLUIDA, SIN ESFUERZO Y ROBUSTA que los clientes esperan, y mostramos a los propietarios cómo ROMPER LOS LÍMITES DE LA CONECTIVIDAD POCO INSPIRADA para aumentar los ingresos, mejorar la satisfacción del cliente/residente y, en última instancia, aumentar el valor de su propiedad.Ofrecemos soluciones completas de Internet y conectividad para huéspedes, residentes y clientes, que incluyen software de clase empresarial, diseño de red, ingeniería, servicios profesionales, mantenimiento continuo, monitoreo de red, soporte multilingüe, informes de ingresos y seguimiento de autenticación.Actividades:Apoyar a los huéspedes del hotel (con sede en los Cabos BC) con sus conexiones cableadas e inalámbricas y el uso de la red SD HSIA.Proporcionar conectividad de red al personal del hotel y soporte de resolución de problemas a pedido.Proporcionar asistencia de configuración y desmontaje con cualquier reunión o conferencia en el lugar.Trabajando con el equipo de soporte de SD, monitoree el rendimiento del sistema y las quejas de los clientes. Interactúe con los huéspedes del hotel y de la conferencia para identificar cualquier necesidad potencial a su llegada. Comunicarse con los invitados, el personal y el equipo de apoyo de SDI con fluidez en español o inglés.Propósito / Resumen del trabajo:El Representante de Servicios al Huésped atiende las necesidades de soporte tecnológico y de sistemas de los huéspedes y el personal del hotel, ayudándolos con la configuración de la conectividad a Internet, así como con la resolución de cualquier desafío relacionado con el funcionamiento o la funcionalidad de la red deAcceso a Internet de Alta Velocidad (HSIA) de un solo dígito (SD).El puesto está ubicado en un sitio específico del hotel, y es de lunes a sábado, de 9:00 a 18:30 hrs.Los solicitantes deben tener la capacidad de leer/escribir/hablar español e inglés.Deberes /Responsabilidades:Apoye a los huéspedes del hotel con sus conexiones cableadas e inalámbricas y el uso de la red SD HSIA Proporcionar conectividad de red al personal del hotel y soporte de resolución de problemas bajo demanda Proporcionar asistencia de configuración y desmontaje con cualquier reunión o conferencia en el lugarTrabajando con el equipo de soporte de SD, monitoree el rendimiento del sistema y las quejas de los clientes Interactúe con los huéspedes del hotel y de la conferencia para identificar cualquier necesidad potencial a su llegada Proporcionar una excelente experiencia al cliente mientras se mantiene un entorno de trabajo seguro Multitarea y prioriza según sea necesario para satisfacer las necesidades del cliente Garantizar que se brinde la más alta calidad de servicio para promover la satisfacción superior del cliente Cumplir con las pautas y requisitos de seguridad de la empresa Comunicarse con los invitados, el personal y elequipo de apoyo de SDI con fluidez en español o inglés Requisitos y calificaciones del trabajoEducación: Diploma técnico o equivalente.Bilingüe 70% Experiencia:Experiencia previa trabajando en la industria hotelera (preferiblemente). Experiencia conectando computadoras, teléfonos, tabletas y dispositivos de juego a redes wifi e internetExperiencia en Servicio al Cliente trabajando con el público.Experiencia en un rol/entorno de soporte de escritorio o red.Recomendable aquellos con experiencia trabajando como técnico/ingenierode campo Conocimiento:Conocimiento de los conceptos de redes de Internet y lasherramientas relacionadas, conocimientos LAN/WAN/WLAN es un plus. Conocimiento de los sistemas operativos y uso básico de Windows / MAC / IOS / Android / Consola de juegosRecomendable conocimiento de los sistemas, equipos, fabricantes y componentes de wifi y redes (ej. cisco)Conocimientos básicos de sistemas de cableado estructurado, deseable compresión de fibra óptica.Microsoft Office, Teams, Zoom, Visio, etc.</v>
+      </c>
+      <c r="F82" t="str">
+        <v>https://mx.computrabajo.com/ofertas-de-trabajo/oferta-de-trabajo-de-asistencia-conectividad-wifi-wifi-concierge-en-los-cabos-A5F02E8DB58AE49261373E686DCF3405#lc=ListOffers-Score0-0</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F82"/>
   </ignoredErrors>
 </worksheet>
 </file>